--- a/Requirements/Documents/Excel Sheets/Final Master Sheet.xlsx
+++ b/Requirements/Documents/Excel Sheets/Final Master Sheet.xlsx
@@ -8,13 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Documents\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16DDCA94-C2B5-4B99-8A2B-3456BABB8CC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{76AEFFA0-F295-4A47-84CB-4C83BAF1BAE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{051B270D-83F4-4DEA-B3EA-70160ECAA8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Batch Sheet for app" sheetId="2" r:id="rId1"/>
+    <sheet name="Drop Down values" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="DisabilityType">'Drop Down values'!$I$2:$I$23</definedName>
+    <definedName name="Districts">'Drop Down values'!$B$2:$B$860</definedName>
+    <definedName name="EducationLevel">'Drop Down values'!$C$2:$C$11</definedName>
+    <definedName name="EmploymentType">'Drop Down values'!$F$2:$F$8</definedName>
+    <definedName name="Gender">'Drop Down values'!$H$2:$H$4</definedName>
+    <definedName name="GuardianType">'Drop Down values'!$E$2:$E$5</definedName>
+    <definedName name="ListOfStates">'Drop Down values'!$A$2:$A$33</definedName>
+    <definedName name="PaymentMode">'Drop Down values'!$G$2</definedName>
+    <definedName name="Salutation">'Drop Down values'!$D$2:$D$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,81 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
-  <si>
-    <t>Employed/Contractual</t>
-  </si>
-  <si>
-    <t>Pass/ Fail/ Not Appeared</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="893">
   <si>
     <t>Y/N</t>
   </si>
   <si>
-    <t>Municpality Name, Ward/Circle No.</t>
-  </si>
-  <si>
-    <t>Sarojini Nagar, Delhi</t>
-  </si>
-  <si>
-    <t>xxxx12ddd</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>PAN Card</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>South Delhi</t>
-  </si>
-  <si>
     <t>Delhi</t>
   </si>
   <si>
-    <t>10th</t>
-  </si>
-  <si>
-    <t>xxxxxxxx</t>
-  </si>
-  <si>
-    <t>Suman Saxena</t>
-  </si>
-  <si>
-    <t>Saxena</t>
-  </si>
-  <si>
-    <t>Dinesh</t>
-  </si>
-  <si>
-    <t>S/o,W/o,D/o,C/o</t>
-  </si>
-  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>M/F/T</t>
-  </si>
-  <si>
-    <t>Kamal</t>
-  </si>
-  <si>
-    <t>Mr./Ms.</t>
   </si>
   <si>
     <t>Employment Type</t>
@@ -199,15 +148,6 @@
     <t>Candidates Information</t>
   </si>
   <si>
-    <t>B-1234</t>
-  </si>
-  <si>
-    <t>NSDC-4343</t>
-  </si>
-  <si>
-    <t>Kam Avida</t>
-  </si>
-  <si>
     <t>Safai Karamchari</t>
   </si>
   <si>
@@ -230,13 +170,2560 @@
   </si>
   <si>
     <t>Batch Wise Data For NSKFDC Trainings</t>
+  </si>
+  <si>
+    <t>Districts</t>
+  </si>
+  <si>
+    <t>GuardianType</t>
+  </si>
+  <si>
+    <t>EmploymentType</t>
+  </si>
+  <si>
+    <t>DisabilityType</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Andaman</t>
+  </si>
+  <si>
+    <t>Un Educated</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>Employed Through Partner</t>
+  </si>
+  <si>
+    <t>Bank Transfer</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Nicobar</t>
+  </si>
+  <si>
+    <t>5th to 8th</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>D/O</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Locomotor Disability</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>9th to 10th</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>W/O</t>
+  </si>
+  <si>
+    <t>Self Employed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Blindness (Visually Impaired)</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Adilabad</t>
+  </si>
+  <si>
+    <t>11th to 12th</t>
+  </si>
+  <si>
+    <t>C/O</t>
+  </si>
+  <si>
+    <t>Up Skilled</t>
+  </si>
+  <si>
+    <t>Deaf</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Under Graduate</t>
+  </si>
+  <si>
+    <t>Opted for Higher Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low-vision </t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Chittoor</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Employed Through Registered Employer</t>
+  </si>
+  <si>
+    <t>Hard of Hearing</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Cuddapah</t>
+  </si>
+  <si>
+    <t>Post Graduate</t>
+  </si>
+  <si>
+    <t>Employed</t>
+  </si>
+  <si>
+    <t>Intellectual Disability</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Dharwad</t>
+  </si>
+  <si>
+    <t>ITI</t>
+  </si>
+  <si>
+    <t>Autism Spectrum Disorder</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>East Godavari</t>
+  </si>
+  <si>
+    <t>Polytechnic</t>
+  </si>
+  <si>
+    <t>Specific Learning Disabilities</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Guntur</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>Speech and Language Disability (Speech Impaired)</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Kadapa</t>
+  </si>
+  <si>
+    <t>Deaf and Blindness</t>
+  </si>
+  <si>
+    <t>Karimnagar</t>
+  </si>
+  <si>
+    <t>Mental Behavior- Mental Illness, Mental Retardation</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Khammam</t>
+  </si>
+  <si>
+    <t>Leprosy Cured Person</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Kodad</t>
+  </si>
+  <si>
+    <t>Acid Attack Victims</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Dwarfism</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Kurnool</t>
+  </si>
+  <si>
+    <t>Haemophilia</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Mahbubnagar</t>
+  </si>
+  <si>
+    <t>Thalassemia</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Medak</t>
+  </si>
+  <si>
+    <t>Sickle Cell Disease</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Nagam</t>
+  </si>
+  <si>
+    <t>Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nalgonda</t>
+  </si>
+  <si>
+    <t>Muscular Dystrophy</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Nellore</t>
+  </si>
+  <si>
+    <t>Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Nizamabad</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Prakasam</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Rajahmundry</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Ranga Reddy</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Shadol</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Shahdol</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Srikakulam</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Tandur</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Tirupathi</t>
+  </si>
+  <si>
+    <t>Vijayawada</t>
+  </si>
+  <si>
+    <t>Visakhapatnam</t>
+  </si>
+  <si>
+    <t>Vizianagaram</t>
+  </si>
+  <si>
+    <t>Warangal</t>
+  </si>
+  <si>
+    <t>West Godavari</t>
+  </si>
+  <si>
+    <t>YSR Kadapa</t>
+  </si>
+  <si>
+    <t>Bomdila</t>
+  </si>
+  <si>
+    <t>Changlang</t>
+  </si>
+  <si>
+    <t>Dibang Valley</t>
+  </si>
+  <si>
+    <t>East Kameng</t>
+  </si>
+  <si>
+    <t>East Siang</t>
+  </si>
+  <si>
+    <t>Itanagar</t>
+  </si>
+  <si>
+    <t>Lohit</t>
+  </si>
+  <si>
+    <t>Lower Subansiri</t>
+  </si>
+  <si>
+    <t>Naharlagun</t>
+  </si>
+  <si>
+    <t>Papum Pare</t>
+  </si>
+  <si>
+    <t>Tawang</t>
+  </si>
+  <si>
+    <t>Tirap</t>
+  </si>
+  <si>
+    <t>Upper Siang</t>
+  </si>
+  <si>
+    <t>Upper Subansiri</t>
+  </si>
+  <si>
+    <t>West Kameng</t>
+  </si>
+  <si>
+    <t>West Siang</t>
+  </si>
+  <si>
+    <t>Baksa</t>
+  </si>
+  <si>
+    <t>Barpeta</t>
+  </si>
+  <si>
+    <t>Bongaigaon</t>
+  </si>
+  <si>
+    <t>Cachar</t>
+  </si>
+  <si>
+    <t>Chirang</t>
+  </si>
+  <si>
+    <t>Darrang</t>
+  </si>
+  <si>
+    <t>Dhemaji</t>
+  </si>
+  <si>
+    <t>Dhubri</t>
+  </si>
+  <si>
+    <t>Dibrugarh</t>
+  </si>
+  <si>
+    <t>Dimasa</t>
+  </si>
+  <si>
+    <t>Dongpar</t>
+  </si>
+  <si>
+    <t>Goalpara</t>
+  </si>
+  <si>
+    <t>Golaghat</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>Hailakandi</t>
+  </si>
+  <si>
+    <t>Jorhat</t>
+  </si>
+  <si>
+    <t>Kamrup</t>
+  </si>
+  <si>
+    <t>Karbi Anglong</t>
+  </si>
+  <si>
+    <t>Karimganj</t>
+  </si>
+  <si>
+    <t>Kokrajhar</t>
+  </si>
+  <si>
+    <t>Lakhimpur Kheri</t>
+  </si>
+  <si>
+    <t>Morigaon</t>
+  </si>
+  <si>
+    <t>N. Cachar Hills</t>
+  </si>
+  <si>
+    <t>Nagaon</t>
+  </si>
+  <si>
+    <t>Nalbari</t>
+  </si>
+  <si>
+    <t>Silchar</t>
+  </si>
+  <si>
+    <t>Sivasagar</t>
+  </si>
+  <si>
+    <t>Sonitpur</t>
+  </si>
+  <si>
+    <t>Tezpur</t>
+  </si>
+  <si>
+    <t>Tinsukia</t>
+  </si>
+  <si>
+    <t>Udalguri</t>
+  </si>
+  <si>
+    <t>Ara</t>
+  </si>
+  <si>
+    <t>Araria</t>
+  </si>
+  <si>
+    <t>Arwal</t>
+  </si>
+  <si>
+    <t>Aurangabad</t>
+  </si>
+  <si>
+    <t>Banka</t>
+  </si>
+  <si>
+    <t>Begusarai</t>
+  </si>
+  <si>
+    <t>Bhagalpur</t>
+  </si>
+  <si>
+    <t>Bhojpur</t>
+  </si>
+  <si>
+    <t>Bihar Sharif</t>
+  </si>
+  <si>
+    <t>birpur</t>
+  </si>
+  <si>
+    <t>Buxar</t>
+  </si>
+  <si>
+    <t>Champaran</t>
+  </si>
+  <si>
+    <t>CHANPATIA</t>
+  </si>
+  <si>
+    <t>Chapra</t>
+  </si>
+  <si>
+    <t>Darbhanga</t>
+  </si>
+  <si>
+    <t>Dumrao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Champaran </t>
+  </si>
+  <si>
+    <t>Gaya</t>
+  </si>
+  <si>
+    <t>Gonda</t>
+  </si>
+  <si>
+    <t>Gopalganj</t>
+  </si>
+  <si>
+    <t>Hazipur</t>
+  </si>
+  <si>
+    <t>Jamui</t>
+  </si>
+  <si>
+    <t>Jaynagar</t>
+  </si>
+  <si>
+    <t>Jehanabad</t>
+  </si>
+  <si>
+    <t>Kaimur</t>
+  </si>
+  <si>
+    <t>Kaimur (Bhabua)</t>
+  </si>
+  <si>
+    <t>Katihar</t>
+  </si>
+  <si>
+    <t>Katiyan</t>
+  </si>
+  <si>
+    <t>Khagaria</t>
+  </si>
+  <si>
+    <t>Kishanganj</t>
+  </si>
+  <si>
+    <t>Lakhisarai</t>
+  </si>
+  <si>
+    <t>Madhepura</t>
+  </si>
+  <si>
+    <t>Madhubani</t>
+  </si>
+  <si>
+    <t>Mahua</t>
+  </si>
+  <si>
+    <t>Meergunj</t>
+  </si>
+  <si>
+    <t>Motihari</t>
+  </si>
+  <si>
+    <t>Munger</t>
+  </si>
+  <si>
+    <t>Muzaffarpur</t>
+  </si>
+  <si>
+    <t>Nalanda</t>
+  </si>
+  <si>
+    <t>Nawada</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Purnia</t>
+  </si>
+  <si>
+    <t>Rohtas</t>
+  </si>
+  <si>
+    <t>ROSERA</t>
+  </si>
+  <si>
+    <t>Saharsa</t>
+  </si>
+  <si>
+    <t>Samastipur</t>
+  </si>
+  <si>
+    <t>Saran</t>
+  </si>
+  <si>
+    <t>Sasaram</t>
+  </si>
+  <si>
+    <t>Sheikhpura</t>
+  </si>
+  <si>
+    <t>Sheohar</t>
+  </si>
+  <si>
+    <t>Sitamarhi</t>
+  </si>
+  <si>
+    <t>Siwan</t>
+  </si>
+  <si>
+    <t>Supaul</t>
+  </si>
+  <si>
+    <t>Vaishali</t>
+  </si>
+  <si>
+    <t>West Champaran</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Bilaspur</t>
+  </si>
+  <si>
+    <t>Anuppur</t>
+  </si>
+  <si>
+    <t>Balaghat</t>
+  </si>
+  <si>
+    <t>Balod</t>
+  </si>
+  <si>
+    <t>Baloda Bazar</t>
+  </si>
+  <si>
+    <t>Balrampur</t>
+  </si>
+  <si>
+    <t>Bastar</t>
+  </si>
+  <si>
+    <t>BHILAI</t>
+  </si>
+  <si>
+    <t>Dantewada</t>
+  </si>
+  <si>
+    <t>Dhamtari</t>
+  </si>
+  <si>
+    <t>Durg</t>
+  </si>
+  <si>
+    <t>Jahan khelan</t>
+  </si>
+  <si>
+    <t>Janjgir-Champa</t>
+  </si>
+  <si>
+    <t>Jashpur</t>
+  </si>
+  <si>
+    <t>kabirdham</t>
+  </si>
+  <si>
+    <t>Kanker</t>
+  </si>
+  <si>
+    <t>Kawardha</t>
+  </si>
+  <si>
+    <t>Korba</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Mahasamund</t>
+  </si>
+  <si>
+    <t>Narayanpur</t>
+  </si>
+  <si>
+    <t>Patan</t>
+  </si>
+  <si>
+    <t>Raigarh</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Rajgarh</t>
+  </si>
+  <si>
+    <t>Rajnandgaon</t>
+  </si>
+  <si>
+    <t>Surajpur</t>
+  </si>
+  <si>
+    <t>Surguja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijayapur </t>
+  </si>
+  <si>
+    <t>Dadra &amp; Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Daman</t>
+  </si>
+  <si>
+    <t>Diu</t>
+  </si>
+  <si>
+    <t>East District</t>
+  </si>
+  <si>
+    <t>North District</t>
+  </si>
+  <si>
+    <t>South District</t>
+  </si>
+  <si>
+    <t>West District</t>
+  </si>
+  <si>
+    <t>North Goa</t>
+  </si>
+  <si>
+    <t>South Goa</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Amreli</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>Aravalli</t>
+  </si>
+  <si>
+    <t>Banaskantha</t>
+  </si>
+  <si>
+    <t>Bharuch</t>
+  </si>
+  <si>
+    <t>Bhavnagar</t>
+  </si>
+  <si>
+    <t>Bhuj</t>
+  </si>
+  <si>
+    <t>Botad</t>
+  </si>
+  <si>
+    <t>Chhota Udepur</t>
+  </si>
+  <si>
+    <t>Dahod</t>
+  </si>
+  <si>
+    <t>Dangs</t>
+  </si>
+  <si>
+    <t>Devbhoomi Dwarka</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
+  </si>
+  <si>
+    <t>Gir Somnath</t>
+  </si>
+  <si>
+    <t>Godhra</t>
+  </si>
+  <si>
+    <t>Jamnagar</t>
+  </si>
+  <si>
+    <t>Junagadh</t>
+  </si>
+  <si>
+    <t>Kachchh</t>
+  </si>
+  <si>
+    <t>Kheda</t>
+  </si>
+  <si>
+    <t>Mahisagar</t>
+  </si>
+  <si>
+    <t>Mehsana</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>Navsari</t>
+  </si>
+  <si>
+    <t>Panchmahal</t>
+  </si>
+  <si>
+    <t>Porbandar</t>
+  </si>
+  <si>
+    <t>RADHANPUR</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Sabarkantha</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Surendranagar</t>
+  </si>
+  <si>
+    <t>Tapi</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Valsad</t>
+  </si>
+  <si>
+    <t>Ambala</t>
+  </si>
+  <si>
+    <t>Bhiwani</t>
+  </si>
+  <si>
+    <t>Faridabad</t>
+  </si>
+  <si>
+    <t>Farukhnagar</t>
+  </si>
+  <si>
+    <t>Fatehabad</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Hisar</t>
+  </si>
+  <si>
+    <t>Jhajjar</t>
+  </si>
+  <si>
+    <t>Jind</t>
+  </si>
+  <si>
+    <t>Kaithal</t>
+  </si>
+  <si>
+    <t>Karnal</t>
+  </si>
+  <si>
+    <t>Kurukshetra</t>
+  </si>
+  <si>
+    <t>Mahendragarh</t>
+  </si>
+  <si>
+    <t>Mewat</t>
+  </si>
+  <si>
+    <t>Palwal</t>
+  </si>
+  <si>
+    <t>Panchkula</t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
+    <t>Rewari</t>
+  </si>
+  <si>
+    <t>Rohtak</t>
+  </si>
+  <si>
+    <t>Sirsa</t>
+  </si>
+  <si>
+    <t>Sonipat</t>
+  </si>
+  <si>
+    <t>Yamunanagar</t>
+  </si>
+  <si>
+    <t>Chamba</t>
+  </si>
+  <si>
+    <t>Dharamsala</t>
+  </si>
+  <si>
+    <t>Hamirpur</t>
+  </si>
+  <si>
+    <t>Kangra</t>
+  </si>
+  <si>
+    <t>Kinnaur</t>
+  </si>
+  <si>
+    <t>Kullu</t>
+  </si>
+  <si>
+    <t>Lahaul &amp; Spiti</t>
+  </si>
+  <si>
+    <t>Manali</t>
+  </si>
+  <si>
+    <t>Mandi</t>
+  </si>
+  <si>
+    <t>Palampur</t>
+  </si>
+  <si>
+    <t>Parwanoo</t>
+  </si>
+  <si>
+    <t>Shimla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sirmaur </t>
+  </si>
+  <si>
+    <t>Solan</t>
+  </si>
+  <si>
+    <t>Una</t>
+  </si>
+  <si>
+    <t>Anantnag</t>
+  </si>
+  <si>
+    <t>Baramulla</t>
+  </si>
+  <si>
+    <t>Budgam</t>
+  </si>
+  <si>
+    <t>Doda</t>
+  </si>
+  <si>
+    <t>Ganderbal</t>
+  </si>
+  <si>
+    <t>Hazaribag</t>
+  </si>
+  <si>
+    <t>Jammu</t>
+  </si>
+  <si>
+    <t>Kargil</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>Kathua</t>
+  </si>
+  <si>
+    <t>Kulgam</t>
+  </si>
+  <si>
+    <t>Kupwara</t>
+  </si>
+  <si>
+    <t>Leh</t>
+  </si>
+  <si>
+    <t>Poonch</t>
+  </si>
+  <si>
+    <t>Pulwama</t>
+  </si>
+  <si>
+    <t>Rajouri</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Shopian</t>
+  </si>
+  <si>
+    <t>Srinagar</t>
+  </si>
+  <si>
+    <t>Udhampur</t>
+  </si>
+  <si>
+    <t>Bokaro</t>
+  </si>
+  <si>
+    <t>Chaibasa</t>
+  </si>
+  <si>
+    <t>Chatra</t>
+  </si>
+  <si>
+    <t>Daltengunj</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Deoghar</t>
+  </si>
+  <si>
+    <t>Dhanbad</t>
+  </si>
+  <si>
+    <t>Dumka</t>
+  </si>
+  <si>
+    <t>East Singhbhum</t>
+  </si>
+  <si>
+    <t>Garhwa</t>
+  </si>
+  <si>
+    <t>Giridih</t>
+  </si>
+  <si>
+    <t>Godda</t>
+  </si>
+  <si>
+    <t>Gumla</t>
+  </si>
+  <si>
+    <t>Jamshedpur</t>
+  </si>
+  <si>
+    <t>Jamtara</t>
+  </si>
+  <si>
+    <t>Khunti</t>
+  </si>
+  <si>
+    <t>Koderma</t>
+  </si>
+  <si>
+    <t>Latehar</t>
+  </si>
+  <si>
+    <t>Lohardaga</t>
+  </si>
+  <si>
+    <t>Pakur</t>
+  </si>
+  <si>
+    <t>Palamu</t>
+  </si>
+  <si>
+    <t>Ramgarh</t>
+  </si>
+  <si>
+    <t>Rampur</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>Sahibganj</t>
+  </si>
+  <si>
+    <t>Simdega</t>
+  </si>
+  <si>
+    <t>West Singhbhum</t>
+  </si>
+  <si>
+    <t>Ankola</t>
+  </si>
+  <si>
+    <t>Bagalkot</t>
+  </si>
+  <si>
+    <t>Belgaum</t>
+  </si>
+  <si>
+    <t>Bellary</t>
+  </si>
+  <si>
+    <t>Bengaluru Rural</t>
+  </si>
+  <si>
+    <t>Bengaluru Urban</t>
+  </si>
+  <si>
+    <t>Bidar</t>
+  </si>
+  <si>
+    <t>Bijapur</t>
+  </si>
+  <si>
+    <t>Chamarajanagar</t>
+  </si>
+  <si>
+    <t>Chikballapur</t>
+  </si>
+  <si>
+    <t>Chikkmagaluru</t>
+  </si>
+  <si>
+    <t>Chitradurga</t>
+  </si>
+  <si>
+    <t>Dakshina Kannada</t>
+  </si>
+  <si>
+    <t>Davanagere</t>
+  </si>
+  <si>
+    <t>Doddaballapur</t>
+  </si>
+  <si>
+    <t>Gadag</t>
+  </si>
+  <si>
+    <t>GANGAVATHI</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Haveri</t>
+  </si>
+  <si>
+    <t>Hospet</t>
+  </si>
+  <si>
+    <t>Hubli</t>
+  </si>
+  <si>
+    <t>Kalaburagi</t>
+  </si>
+  <si>
+    <t>Karwar</t>
+  </si>
+  <si>
+    <t>Kodagu</t>
+  </si>
+  <si>
+    <t>Kolar</t>
+  </si>
+  <si>
+    <t>Koppal</t>
+  </si>
+  <si>
+    <t>LINGASURGUR</t>
+  </si>
+  <si>
+    <t>Mandya</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>Manipal</t>
+  </si>
+  <si>
+    <t>Mysuru</t>
+  </si>
+  <si>
+    <t>Raichur</t>
+  </si>
+  <si>
+    <t>Rajarajeshwari Nagar</t>
+  </si>
+  <si>
+    <t>Ramnagara</t>
+  </si>
+  <si>
+    <t>Satara</t>
+  </si>
+  <si>
+    <t>Shivamogga</t>
+  </si>
+  <si>
+    <t>SINDHANUR</t>
+  </si>
+  <si>
+    <t>Tumakuru</t>
+  </si>
+  <si>
+    <t>Udupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttara Kannada </t>
+  </si>
+  <si>
+    <t>Yadgir</t>
+  </si>
+  <si>
+    <t>Yanam</t>
+  </si>
+  <si>
+    <t>Alappuzha</t>
+  </si>
+  <si>
+    <t>Calicut</t>
+  </si>
+  <si>
+    <t>Cochin</t>
+  </si>
+  <si>
+    <t>Ernakulam</t>
+  </si>
+  <si>
+    <t>Idukki</t>
+  </si>
+  <si>
+    <t>Kannur</t>
+  </si>
+  <si>
+    <t>Kasaragod</t>
+  </si>
+  <si>
+    <t>Kolin</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>Kottayam</t>
+  </si>
+  <si>
+    <t>Kozhikode</t>
+  </si>
+  <si>
+    <t>Malappuram</t>
+  </si>
+  <si>
+    <t>Palakkad</t>
+  </si>
+  <si>
+    <t>Pathanamthitta</t>
+  </si>
+  <si>
+    <t>Poothiruvathira</t>
+  </si>
+  <si>
+    <t>Thanjavur</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram</t>
+  </si>
+  <si>
+    <t>Thrissur</t>
+  </si>
+  <si>
+    <t>Trichur</t>
+  </si>
+  <si>
+    <t>Trivandrum</t>
+  </si>
+  <si>
+    <t>Wayanad</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Alirajpur</t>
+  </si>
+  <si>
+    <t>Ashoknagar</t>
+  </si>
+  <si>
+    <t>Barwani</t>
+  </si>
+  <si>
+    <t>Betul</t>
+  </si>
+  <si>
+    <t>Bhind</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Burhanpur</t>
+  </si>
+  <si>
+    <t>Chhatarpur</t>
+  </si>
+  <si>
+    <t>Chhindwara</t>
+  </si>
+  <si>
+    <t>Damoh</t>
+  </si>
+  <si>
+    <t>Datia</t>
+  </si>
+  <si>
+    <t>Dewas</t>
+  </si>
+  <si>
+    <t>Dhar</t>
+  </si>
+  <si>
+    <t>Dindori</t>
+  </si>
+  <si>
+    <t>Guna</t>
+  </si>
+  <si>
+    <t>Gwalior</t>
+  </si>
+  <si>
+    <t>Harda</t>
+  </si>
+  <si>
+    <t>Hoshangabad</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>Jabalpur</t>
+  </si>
+  <si>
+    <t>Jhabua</t>
+  </si>
+  <si>
+    <t>Katni</t>
+  </si>
+  <si>
+    <t>Khandwa</t>
+  </si>
+  <si>
+    <t>Khargone</t>
+  </si>
+  <si>
+    <t>Mandla</t>
+  </si>
+  <si>
+    <t>Mandsaur</t>
+  </si>
+  <si>
+    <t>Morena</t>
+  </si>
+  <si>
+    <t>Narsinghpur</t>
+  </si>
+  <si>
+    <t>Neemuch</t>
+  </si>
+  <si>
+    <t>Panna</t>
+  </si>
+  <si>
+    <t>Raisen</t>
+  </si>
+  <si>
+    <t>Ratlam</t>
+  </si>
+  <si>
+    <t>Rewa</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Satna</t>
+  </si>
+  <si>
+    <t>Sehore</t>
+  </si>
+  <si>
+    <t>Seoni</t>
+  </si>
+  <si>
+    <t>Shajapur</t>
+  </si>
+  <si>
+    <t>Sheopur</t>
+  </si>
+  <si>
+    <t>Shivpuri</t>
+  </si>
+  <si>
+    <t>Sidhi</t>
+  </si>
+  <si>
+    <t>Singrauli</t>
+  </si>
+  <si>
+    <t>Tikamgarh</t>
+  </si>
+  <si>
+    <t>Ujjain</t>
+  </si>
+  <si>
+    <t>Umaria</t>
+  </si>
+  <si>
+    <t>Vidisha</t>
+  </si>
+  <si>
+    <t>Ahmednagar</t>
+  </si>
+  <si>
+    <t>Akola</t>
+  </si>
+  <si>
+    <t>Ambernath</t>
+  </si>
+  <si>
+    <t>Amravati</t>
+  </si>
+  <si>
+    <t>Beed</t>
+  </si>
+  <si>
+    <t>Bhandara</t>
+  </si>
+  <si>
+    <t>Bhandup</t>
+  </si>
+  <si>
+    <t>Buldhana</t>
+  </si>
+  <si>
+    <t>Chandrapur</t>
+  </si>
+  <si>
+    <t>Dhule</t>
+  </si>
+  <si>
+    <t>Gadchiroli</t>
+  </si>
+  <si>
+    <t>Gondia</t>
+  </si>
+  <si>
+    <t>Gr. Mumbai</t>
+  </si>
+  <si>
+    <t>Hadaspar</t>
+  </si>
+  <si>
+    <t>Hingoli</t>
+  </si>
+  <si>
+    <t>Jalgaon</t>
+  </si>
+  <si>
+    <t>Jalna</t>
+  </si>
+  <si>
+    <t>Kolhapur</t>
+  </si>
+  <si>
+    <t>Latur</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Murshidabad</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Nanded</t>
+  </si>
+  <si>
+    <t>Nandurbar</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Navi Mumbai</t>
+  </si>
+  <si>
+    <t>Osmanabad</t>
+  </si>
+  <si>
+    <t>Parbhani</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Raigad</t>
+  </si>
+  <si>
+    <t>Ratnagiri</t>
+  </si>
+  <si>
+    <t>Sadashiv Peth</t>
+  </si>
+  <si>
+    <t>Sangli</t>
+  </si>
+  <si>
+    <t>Sindhudurg</t>
+  </si>
+  <si>
+    <t>Solapur</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Wardha</t>
+  </si>
+  <si>
+    <t>Washim</t>
+  </si>
+  <si>
+    <t>Yavatmal</t>
+  </si>
+  <si>
+    <t>Bishnupur</t>
+  </si>
+  <si>
+    <t>Chandel</t>
+  </si>
+  <si>
+    <t>Churachandpur</t>
+  </si>
+  <si>
+    <t>Imphal</t>
+  </si>
+  <si>
+    <t>Imphal East</t>
+  </si>
+  <si>
+    <t>Imphal West</t>
+  </si>
+  <si>
+    <t>Senapati</t>
+  </si>
+  <si>
+    <t>Tamenglong</t>
+  </si>
+  <si>
+    <t>Thoubal</t>
+  </si>
+  <si>
+    <t>Ukhrul</t>
+  </si>
+  <si>
+    <t>Kakching</t>
+  </si>
+  <si>
+    <t>Cooch Behar</t>
+  </si>
+  <si>
+    <t>East Garo Hills</t>
+  </si>
+  <si>
+    <t>East Khasi Hills</t>
+  </si>
+  <si>
+    <t>Jaintia Hills</t>
+  </si>
+  <si>
+    <t>North Garo Hills</t>
+  </si>
+  <si>
+    <t>Ri Bhoi</t>
+  </si>
+  <si>
+    <t>Shillong</t>
+  </si>
+  <si>
+    <t>South Garo Hills</t>
+  </si>
+  <si>
+    <t>West Garo Hills</t>
+  </si>
+  <si>
+    <t>West Khasi Hills</t>
+  </si>
+  <si>
+    <t>Aizawl</t>
+  </si>
+  <si>
+    <t>Aizawl East</t>
+  </si>
+  <si>
+    <t>Aizawl West</t>
+  </si>
+  <si>
+    <t>Chhimtuipui</t>
+  </si>
+  <si>
+    <t>Lunglei</t>
+  </si>
+  <si>
+    <t>Dimapur</t>
+  </si>
+  <si>
+    <t>Kiphire</t>
+  </si>
+  <si>
+    <t>Kohima</t>
+  </si>
+  <si>
+    <t>Longleng</t>
+  </si>
+  <si>
+    <t>Mokokchung</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Peren</t>
+  </si>
+  <si>
+    <t>Phek</t>
+  </si>
+  <si>
+    <t>Tuensang</t>
+  </si>
+  <si>
+    <t>Wokha</t>
+  </si>
+  <si>
+    <t>Zunheboto</t>
+  </si>
+  <si>
+    <t>Angul</t>
+  </si>
+  <si>
+    <t>Balangir</t>
+  </si>
+  <si>
+    <t>Balasore</t>
+  </si>
+  <si>
+    <t>Bargarh</t>
+  </si>
+  <si>
+    <t>BERHAMPUR</t>
+  </si>
+  <si>
+    <t>Bhadrak</t>
+  </si>
+  <si>
+    <t>bhubaneswar</t>
+  </si>
+  <si>
+    <t>Boudh</t>
+  </si>
+  <si>
+    <t>Cuttack</t>
+  </si>
+  <si>
+    <t>Deogarh</t>
+  </si>
+  <si>
+    <t>Derabish</t>
+  </si>
+  <si>
+    <t>Dhenkanal</t>
+  </si>
+  <si>
+    <t>Gajapati</t>
+  </si>
+  <si>
+    <t>Ganjam</t>
+  </si>
+  <si>
+    <t>Jagatsinghapur</t>
+  </si>
+  <si>
+    <t>Jajapur</t>
+  </si>
+  <si>
+    <t>Jharsuguda</t>
+  </si>
+  <si>
+    <t>Kalahandi</t>
+  </si>
+  <si>
+    <t>Kandhamal</t>
+  </si>
+  <si>
+    <t>Kendrapara</t>
+  </si>
+  <si>
+    <t>Kendujhar</t>
+  </si>
+  <si>
+    <t>Khordha</t>
+  </si>
+  <si>
+    <t>Koraput</t>
+  </si>
+  <si>
+    <t>Malkangiri</t>
+  </si>
+  <si>
+    <t>Mayurbhanj</t>
+  </si>
+  <si>
+    <t>Muniguda</t>
+  </si>
+  <si>
+    <t>Nabarangpur</t>
+  </si>
+  <si>
+    <t>Nayagarh</t>
+  </si>
+  <si>
+    <t>Nuapada</t>
+  </si>
+  <si>
+    <t>Phulbani</t>
+  </si>
+  <si>
+    <t>Puri</t>
+  </si>
+  <si>
+    <t>Raipor</t>
+  </si>
+  <si>
+    <t>Rayagada</t>
+  </si>
+  <si>
+    <t>Rourkela</t>
+  </si>
+  <si>
+    <t>Sambalpur</t>
+  </si>
+  <si>
+    <t>Subarnapur</t>
+  </si>
+  <si>
+    <t>Sundargarh</t>
+  </si>
+  <si>
+    <t>Karaikal</t>
+  </si>
+  <si>
+    <t>Mahe</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>ABOHAR</t>
+  </si>
+  <si>
+    <t>Adampur</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>Barnala</t>
+  </si>
+  <si>
+    <t>Batala</t>
+  </si>
+  <si>
+    <t>Bathinda</t>
+  </si>
+  <si>
+    <t>chakwal</t>
+  </si>
+  <si>
+    <t>Faridkot</t>
+  </si>
+  <si>
+    <t>Fatehgarh Sahib</t>
+  </si>
+  <si>
+    <t>Fatehpur</t>
+  </si>
+  <si>
+    <t>Fazilka</t>
+  </si>
+  <si>
+    <t>Ferozepur</t>
+  </si>
+  <si>
+    <t>Govind nagar</t>
+  </si>
+  <si>
+    <t>Gurdaspur</t>
+  </si>
+  <si>
+    <t>Hoshiarpur</t>
+  </si>
+  <si>
+    <t>Jalandhar</t>
+  </si>
+  <si>
+    <t>Kapurthala</t>
+  </si>
+  <si>
+    <t>KOTKAPURA</t>
+  </si>
+  <si>
+    <t>Ludhiana</t>
+  </si>
+  <si>
+    <t>Mansa</t>
+  </si>
+  <si>
+    <t>Moga</t>
+  </si>
+  <si>
+    <t>Mohali</t>
+  </si>
+  <si>
+    <t>Pathankot</t>
+  </si>
+  <si>
+    <t>Patiala</t>
+  </si>
+  <si>
+    <t>Raikot</t>
+  </si>
+  <si>
+    <t>Rupnagar</t>
+  </si>
+  <si>
+    <t>Sangrur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaheed Bhagat Singh Nagar </t>
+  </si>
+  <si>
+    <t>Sri Muktsar Sahab</t>
+  </si>
+  <si>
+    <t>Tarn Taran</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
+    <t>Ajmer</t>
+  </si>
+  <si>
+    <t>Alwar</t>
+  </si>
+  <si>
+    <t>Banswara</t>
+  </si>
+  <si>
+    <t>Baran</t>
+  </si>
+  <si>
+    <t>Barmer</t>
+  </si>
+  <si>
+    <t>Behror</t>
+  </si>
+  <si>
+    <t>Bharatpur</t>
+  </si>
+  <si>
+    <t>Bhilwara</t>
+  </si>
+  <si>
+    <t>Bikaner</t>
+  </si>
+  <si>
+    <t>Bundi</t>
+  </si>
+  <si>
+    <t>Chittorgarh</t>
+  </si>
+  <si>
+    <t>Chomu</t>
+  </si>
+  <si>
+    <t>Churu</t>
+  </si>
+  <si>
+    <t>Dausa</t>
+  </si>
+  <si>
+    <t>Dholpur</t>
+  </si>
+  <si>
+    <t>Dungarpur</t>
+  </si>
+  <si>
+    <t>GANGAPUR CITY</t>
+  </si>
+  <si>
+    <t>Hanumangarh</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Jaisalmer</t>
+  </si>
+  <si>
+    <t>Jalore</t>
+  </si>
+  <si>
+    <t>Jhalawar</t>
+  </si>
+  <si>
+    <t>Jhunjhunu</t>
+  </si>
+  <si>
+    <t>Jodhpur</t>
+  </si>
+  <si>
+    <t>Karauli</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Mahwa</t>
+  </si>
+  <si>
+    <t>Nagaur</t>
+  </si>
+  <si>
+    <t>Pali</t>
+  </si>
+  <si>
+    <t>Pilani</t>
+  </si>
+  <si>
+    <t>Pratapgarh</t>
+  </si>
+  <si>
+    <t>Rajsamand</t>
+  </si>
+  <si>
+    <t>Sawai Madhopur</t>
+  </si>
+  <si>
+    <t>Sikar</t>
+  </si>
+  <si>
+    <t>Sirohi</t>
+  </si>
+  <si>
+    <t>Sri Ganganagar</t>
+  </si>
+  <si>
+    <t>Sujangarg</t>
+  </si>
+  <si>
+    <t>Tonk</t>
+  </si>
+  <si>
+    <t>Udaipur</t>
+  </si>
+  <si>
+    <t>Gangtok</t>
+  </si>
+  <si>
+    <t>Unakoti</t>
+  </si>
+  <si>
+    <t>Ariyalur</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Cuddalore</t>
+  </si>
+  <si>
+    <t>Dharmapuri</t>
+  </si>
+  <si>
+    <t>Dindigul</t>
+  </si>
+  <si>
+    <t>Erode</t>
+  </si>
+  <si>
+    <t>Hosur</t>
+  </si>
+  <si>
+    <t>Kanchipuram</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>Karur</t>
+  </si>
+  <si>
+    <t>Krishnagiri</t>
+  </si>
+  <si>
+    <t>KUMBAKONAM</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Nagapattinam</t>
+  </si>
+  <si>
+    <t>Nagercoil</t>
+  </si>
+  <si>
+    <t>Namakkal</t>
+  </si>
+  <si>
+    <t>Nilgiris</t>
+  </si>
+  <si>
+    <t>Ooty</t>
+  </si>
+  <si>
+    <t>Perambalur</t>
+  </si>
+  <si>
+    <t>Pudukkottai</t>
+  </si>
+  <si>
+    <t>Ramanathapuram</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Sivaganga</t>
+  </si>
+  <si>
+    <t>Theni</t>
+  </si>
+  <si>
+    <t>Thoothukudi</t>
+  </si>
+  <si>
+    <t>Tiruchirappalli</t>
+  </si>
+  <si>
+    <t>Tirunelveli</t>
+  </si>
+  <si>
+    <t>Tiruppur</t>
+  </si>
+  <si>
+    <t>Tiruvallur</t>
+  </si>
+  <si>
+    <t>Tiruvannamalai</t>
+  </si>
+  <si>
+    <t>Tiruvarur</t>
+  </si>
+  <si>
+    <t>Vellore</t>
+  </si>
+  <si>
+    <t>Viluppuram</t>
+  </si>
+  <si>
+    <t>Virudhunagar</t>
+  </si>
+  <si>
+    <t>AGARTALA</t>
+  </si>
+  <si>
+    <t>Dhalai</t>
+  </si>
+  <si>
+    <t>Dharamanagar</t>
+  </si>
+  <si>
+    <t>Gomati</t>
+  </si>
+  <si>
+    <t>Khowai</t>
+  </si>
+  <si>
+    <t>North Tripura</t>
+  </si>
+  <si>
+    <t>Sipahijala</t>
+  </si>
+  <si>
+    <t>South Tripura</t>
+  </si>
+  <si>
+    <t>West Tripura</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Aligarh</t>
+  </si>
+  <si>
+    <t>Allahabad</t>
+  </si>
+  <si>
+    <t>Almora</t>
+  </si>
+  <si>
+    <t>Ambedkar Nagar</t>
+  </si>
+  <si>
+    <t>Ameethi</t>
+  </si>
+  <si>
+    <t>Amroha</t>
+  </si>
+  <si>
+    <t>Auraiya</t>
+  </si>
+  <si>
+    <t>Azamgarh</t>
+  </si>
+  <si>
+    <t>BABERU</t>
+  </si>
+  <si>
+    <t>Bachhrawan</t>
+  </si>
+  <si>
+    <t>Badaun</t>
+  </si>
+  <si>
+    <t>Badohi</t>
+  </si>
+  <si>
+    <t>Baghpat</t>
+  </si>
+  <si>
+    <t>Bahraich</t>
+  </si>
+  <si>
+    <t>Ballia</t>
+  </si>
+  <si>
+    <t>Banda</t>
+  </si>
+  <si>
+    <t>Barabanki</t>
+  </si>
+  <si>
+    <t>Bareilly</t>
+  </si>
+  <si>
+    <t>Basti</t>
+  </si>
+  <si>
+    <t>Bijnor</t>
+  </si>
+  <si>
+    <t>Bulandshahr</t>
+  </si>
+  <si>
+    <t>Chandauli</t>
+  </si>
+  <si>
+    <t>Chitrakoot</t>
+  </si>
+  <si>
+    <t>Deoria</t>
+  </si>
+  <si>
+    <t>Etah</t>
+  </si>
+  <si>
+    <t>Etawah</t>
+  </si>
+  <si>
+    <t>Faizabad</t>
+  </si>
+  <si>
+    <t>Farrukhabad</t>
+  </si>
+  <si>
+    <t>FATEHGARH</t>
+  </si>
+  <si>
+    <t>Firozabad</t>
+  </si>
+  <si>
+    <t>Gautam Buddha Nagar</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>Ghazipur</t>
+  </si>
+  <si>
+    <t>Gorkakhpur</t>
+  </si>
+  <si>
+    <t>Hapur</t>
+  </si>
+  <si>
+    <t>Hardoi</t>
+  </si>
+  <si>
+    <t>Hathras</t>
+  </si>
+  <si>
+    <t>Jalaun</t>
+  </si>
+  <si>
+    <t>Jaunpur</t>
+  </si>
+  <si>
+    <t>Jhansi</t>
+  </si>
+  <si>
+    <t>Jyotiba Phule Nagar</t>
+  </si>
+  <si>
+    <t>Kannauj</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Kanpur Dehat</t>
+  </si>
+  <si>
+    <t>Kanpur Nagar</t>
+  </si>
+  <si>
+    <t>Kanshiram Nagar</t>
+  </si>
+  <si>
+    <t>Kaushambi</t>
+  </si>
+  <si>
+    <t>Kheri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushinagar </t>
+  </si>
+  <si>
+    <t>Lalitpur</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Maharajganj</t>
+  </si>
+  <si>
+    <t>Mahoba</t>
+  </si>
+  <si>
+    <t>Mainpuri</t>
+  </si>
+  <si>
+    <t>Mathura</t>
+  </si>
+  <si>
+    <t>Mau</t>
+  </si>
+  <si>
+    <t>Mauranipur</t>
+  </si>
+  <si>
+    <t>Meerut</t>
+  </si>
+  <si>
+    <t>Mirzapur</t>
+  </si>
+  <si>
+    <t>Moradabad</t>
+  </si>
+  <si>
+    <t>Muzaffarnagar</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Orai</t>
+  </si>
+  <si>
+    <t>Pilibhit</t>
+  </si>
+  <si>
+    <t>Raebareli</t>
+  </si>
+  <si>
+    <t>sagarmatha</t>
+  </si>
+  <si>
+    <t>Saharanpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sambhal </t>
+  </si>
+  <si>
+    <t>Sant Kabir Nagar</t>
+  </si>
+  <si>
+    <t>Sant Ravidas Nagar</t>
+  </si>
+  <si>
+    <t>Shahjahanpur</t>
+  </si>
+  <si>
+    <t>Shamli</t>
+  </si>
+  <si>
+    <t>Shravasti</t>
+  </si>
+  <si>
+    <t>Siddharth Nagar</t>
+  </si>
+  <si>
+    <t>Sitapur</t>
+  </si>
+  <si>
+    <t>Sonbhadra</t>
+  </si>
+  <si>
+    <t>Sultanpur</t>
+  </si>
+  <si>
+    <t>Unnao</t>
+  </si>
+  <si>
+    <t>Bageshwar</t>
+  </si>
+  <si>
+    <t>BHIKIYASAIN</t>
+  </si>
+  <si>
+    <t>Chamoli</t>
+  </si>
+  <si>
+    <t>Champawat</t>
+  </si>
+  <si>
+    <t>Garhwal</t>
+  </si>
+  <si>
+    <t>Haldwani</t>
+  </si>
+  <si>
+    <t>Haridwar</t>
+  </si>
+  <si>
+    <t>Nainital</t>
+  </si>
+  <si>
+    <t>Pauri Garhwal</t>
+  </si>
+  <si>
+    <t>Pithoragarh</t>
+  </si>
+  <si>
+    <t>Roorkee</t>
+  </si>
+  <si>
+    <t>Rudraprayag</t>
+  </si>
+  <si>
+    <t>Tehri Garhwal</t>
+  </si>
+  <si>
+    <t>Udham Singh Nagar</t>
+  </si>
+  <si>
+    <t>Uttarkashi</t>
+  </si>
+  <si>
+    <t>Alipurduar</t>
+  </si>
+  <si>
+    <t>Asansol</t>
+  </si>
+  <si>
+    <t>Baharampur</t>
+  </si>
+  <si>
+    <t>Baksara</t>
+  </si>
+  <si>
+    <t>Bankura</t>
+  </si>
+  <si>
+    <t>Bardhaman</t>
+  </si>
+  <si>
+    <t>Birbhum</t>
+  </si>
+  <si>
+    <t>BOLPUR</t>
+  </si>
+  <si>
+    <t>Dalkhola</t>
+  </si>
+  <si>
+    <t>Darjeeling</t>
+  </si>
+  <si>
+    <t>Durgapur</t>
+  </si>
+  <si>
+    <t>East Midnapora</t>
+  </si>
+  <si>
+    <t>Haldia</t>
+  </si>
+  <si>
+    <t>Hooghly</t>
+  </si>
+  <si>
+    <t>Howrah</t>
+  </si>
+  <si>
+    <t>Jalpaiguri</t>
+  </si>
+  <si>
+    <t>Kharagpur</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Malda</t>
+  </si>
+  <si>
+    <t>Medinipur</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Nandigram</t>
+  </si>
+  <si>
+    <t>North 24 Parganas</t>
+  </si>
+  <si>
+    <t>North Dinajpur</t>
+  </si>
+  <si>
+    <t>Purulia</t>
+  </si>
+  <si>
+    <t>Raigunj</t>
+  </si>
+  <si>
+    <t>Silliguri</t>
+  </si>
+  <si>
+    <t>South 24 Parganas</t>
+  </si>
+  <si>
+    <t>South Dinajpur</t>
+  </si>
+  <si>
+    <t>Tamluk</t>
+  </si>
+  <si>
+    <t>Tangra</t>
+  </si>
+  <si>
+    <t>West Medinipur</t>
+  </si>
+  <si>
+    <t>ListOfStates</t>
+  </si>
+  <si>
+    <t>EducationLevel</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +2760,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,8 +2832,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -481,11 +3020,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -543,27 +3121,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,15 +3145,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{7AAA6E6A-CC20-4F01-A53C-042CD53100E1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{84397F7D-D46F-4276-B7E0-CFB0F0C2E0E9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -911,9 +3517,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,14 +3530,14 @@
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -953,274 +3559,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="25"/>
+      <c r="A2" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="25"/>
+      <c r="A3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="18"/>
+      <c r="A5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="30"/>
       <c r="AG5" s="17"/>
       <c r="AH5" s="17"/>
     </row>
     <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11">
-        <v>32172</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="X7" s="8">
-        <v>123456789</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
       <c r="AA7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2840,13 +5388,4639 @@
       <c r="AC56" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IvwLSw9HQ4ZfGGCWbZCnhQwYmflpRVY909MHQKUYjkOeQ3XK7uG+RzHRNjNW09J+6j7V2SP/CwfOnmbl6Lz58w==" saltValue="1aWW5wxyxZVgECJlp9y0Jg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="3">
+  <sheetProtection algorithmName="SHA-512" hashValue="u4NwZww+HOwJNBgKl+eG8Kbiily5Ix9zIN3rZVKiTMwzhOu4iRlWbb2vgV+1PjVytwL2/WgVjdMfBvNbP06w/Q==" saltValue="/1h08MyhcAA9PoaoZ1kRew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="L5:AC5"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B56" xr:uid="{7A43D44A-74C5-41B0-8B74-5444E9521FA5}">
+      <formula1>Salutation</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E56" xr:uid="{262778F7-334F-4503-B4D1-3BA2768DC1C6}">
+      <formula1>Gender</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F56" xr:uid="{B5006E78-42DB-4391-B1CD-BB9E28A3CE70}">
+      <formula1>DisabilityType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H56" xr:uid="{A863C274-A256-4D44-B65A-D4C5BBB9EAE8}">
+      <formula1>GuardianType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N47:N56" xr:uid="{446B8A23-6ED0-4C26-AD1B-E61BAFA930D6}">
+      <formula1>ListOfStates</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O47:O56" xr:uid="{261598C5-2C80-4A47-B21A-63A9C15C1826}">
+      <formula1>Districts</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{949FA4E7-A92D-4DF0-AC1E-DE855D067ABD}">
+          <x14:formula1>
+            <xm:f>'Drop Down values'!$A$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>N7:N46</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6452AB3D-A31B-4517-877F-B5D361F1743E}">
+  <dimension ref="A1:I860"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>889</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>891</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="35" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="35" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="35" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="35" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="35" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="35" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="35" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="35" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="35" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="35" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="35" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="35" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="35" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="35" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="35" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="35" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="35" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="35" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="35" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="35" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="35" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="35" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="35" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="35" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="35" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="35" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="35" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="35" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="35" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="35" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="35" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="35" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="35" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="35" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="35" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="35" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="35" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="35" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="35" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="35" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="35" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="35" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="35" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="35" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="35" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="35" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="35" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="35" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="35" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="35" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="35" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="35" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="35" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B432" s="35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B433" s="35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B434" s="35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B435" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B436" s="35" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B437" s="35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B438" s="35" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B439" s="35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B440" s="35" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B441" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B442" s="35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B443" s="35" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B444" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B445" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B446" s="35" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B447" s="35" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B448" s="35" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B449" s="35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B450" s="35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B451" s="35" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B452" s="35" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B453" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B454" s="35" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B455" s="35" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B456" s="35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B457" s="35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B458" s="35" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B459" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B460" s="35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B461" s="35" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B462" s="35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B463" s="35" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B464" s="35" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B465" s="35" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B466" s="35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B467" s="35" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B468" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B469" s="35" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B470" s="35" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B471" s="35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B472" s="35" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B473" s="35" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B474" s="35" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B475" s="35" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B476" s="35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B477" s="35" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B478" s="35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B479" s="35" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B480" s="35" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="35" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="35" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="35" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="35" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="35" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="35" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="35" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="35" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="35" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="35" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="35" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="35" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="35" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="35" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="35" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="35" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="35" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="35" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="35" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="35" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="35" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="35" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="35" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="35" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="35" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="35" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="35" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="35" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="35" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="35" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="35" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="35" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="35" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="35" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="35" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="35" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="35" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="35" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="35" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="35" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="35" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="35" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="35" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="35" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="35" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="35" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="35" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="35" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="35" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="35" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="35" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="35" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="35" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="35" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="35" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="35" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="35" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="35" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="35" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="35" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="35" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="35" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="35" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="35" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="35" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="35" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="35" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="35" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="35" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="35" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="35" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="35" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="35" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="35" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="35" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="35" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="35" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="35" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="35" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="35" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="35" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="35" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" s="35" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="35" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" s="35" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" s="35" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" s="35" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="35" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="35" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="35" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" s="35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" s="35" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" s="35" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" s="35" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" s="35" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" s="35" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" s="35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="35" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="35" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" s="35" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" s="35" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" s="35" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="35" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" s="35" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" s="35" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" s="35" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" s="35" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" s="35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" s="35" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" s="35" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" s="35" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="35" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" s="35" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B624" s="35" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B625" s="35" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B626" s="35" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B627" s="35" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B628" s="35" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B629" s="35" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B630" s="35" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B631" s="35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B632" s="35" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B633" s="35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B634" s="35" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B635" s="35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B636" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B637" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B638" s="35" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B639" s="35" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B640" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B641" s="35" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B642" s="35" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B643" s="35" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B644" s="35" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B645" s="35" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B646" s="35" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B647" s="35" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B648" s="35" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B649" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B650" s="35" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B651" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B652" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B653" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B654" s="35" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B655" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B656" s="35" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B657" s="35" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B658" s="35" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B659" s="35" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B660" s="35" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B661" s="35" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B662" s="35" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B663" s="35" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B664" s="35" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B665" s="35" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B666" s="35" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B667" s="35" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B668" s="35" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B669" s="35" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B670" s="35" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B671" s="35" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B672" s="35" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B673" s="35" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B674" s="35" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B675" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B676" s="35" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B677" s="35" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B678" s="35" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B679" s="35" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B680" s="35" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B681" s="35" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B682" s="35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B683" s="35" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B684" s="35" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B685" s="35" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B686" s="35" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B687" s="35" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B688" s="35" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B689" s="35" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B690" s="35" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B691" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B692" s="35" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B693" s="35" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B694" s="35" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B695" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B696" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B697" s="35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B698" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B699" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B700" s="35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B701" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B702" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B703" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B704" s="35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B705" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B706" s="35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B707" s="35" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B708" s="35" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B709" s="35" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B710" s="35" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B711" s="35" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B712" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B713" s="35" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B714" s="35" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B715" s="35" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B716" s="35" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B717" s="35" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B718" s="35" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B719" s="35" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B720" s="35" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B721" s="35" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B722" s="35" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B723" s="35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B724" s="35" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B725" s="35" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B726" s="35" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B727" s="35" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B728" s="35" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B729" s="35" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B730" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B731" s="35" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B732" s="35" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B733" s="35" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B734" s="35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B735" s="35" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B736" s="35" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B737" s="35" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B738" s="35" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B739" s="35" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B740" s="35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B741" s="35" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B742" s="35" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B743" s="35" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B744" s="35" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B745" s="35" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B746" s="35" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B747" s="35" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B748" s="35" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B749" s="35" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B750" s="35" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B751" s="35" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B752" s="35" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B753" s="35" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B754" s="35" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B755" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B756" s="35" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B757" s="35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B758" s="35" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B759" s="35" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B760" s="35" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B761" s="35" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B762" s="35" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B763" s="35" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B764" s="35" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B765" s="35" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B766" s="35" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B767" s="35" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B768" s="35" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B769" s="35" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B770" s="35" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B771" s="35" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B772" s="35" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B773" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B774" s="35" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B775" s="35" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B776" s="35" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B777" s="35" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B778" s="35" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B779" s="35" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B780" s="35" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B781" s="35" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B782" s="35" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B783" s="35" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B784" s="35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B785" s="35" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B786" s="35" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B787" s="35" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B788" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B789" s="35" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B790" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B791" s="35" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B792" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B793" s="35" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B794" s="35" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B795" s="35" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B796" s="35" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B797" s="35" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B798" s="35" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B799" s="35" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B800" s="35" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B801" s="35" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B802" s="35" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B803" s="35" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B804" s="35" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B805" s="35" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B806" s="35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B807" s="35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B808" s="35" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B809" s="35" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B810" s="35" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B811" s="35" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B812" s="35" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B813" s="35" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B814" s="35" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B815" s="35" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B816" s="35" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B817" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B818" s="35" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B819" s="35" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B820" s="35" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B821" s="35" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B822" s="35" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B823" s="35" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B824" s="35" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B825" s="35" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B826" s="35" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B827" s="35" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B828" s="35" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B829" s="35" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B830" s="35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B831" s="35" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B832" s="35" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B833" s="35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B834" s="35" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B835" s="35" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B836" s="35" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B837" s="35" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B838" s="35" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B839" s="35" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B840" s="35" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B841" s="35" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B842" s="35" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B843" s="35" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B844" s="35" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B845" s="35" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B846" s="35" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B847" s="35" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B848" s="35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B849" s="35" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B850" s="35" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B851" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B852" s="35" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B853" s="35" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B854" s="35" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B855" s="35" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B856" s="35" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B857" s="35" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B858" s="35" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B859" s="35" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B860" s="35" t="s">
+        <v>888</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirements/Documents/Excel Sheets/Final Master Sheet.xlsx
+++ b/Requirements/Documents/Excel Sheets/Final Master Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rashmi kapoor\Desktop\NSKFDC APP\trunk\Requirements\Documents\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mannu Kumari\Desktop\Assessment\trunk\Requirements\Documents\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{76AEFFA0-F295-4A47-84CB-4C83BAF1BAE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{051B270D-83F4-4DEA-B3EA-70160ECAA8C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Final Batch Sheet for app" sheetId="2" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="PaymentMode">'Drop Down values'!$G$2</definedName>
     <definedName name="Salutation">'Drop Down values'!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="894">
   <si>
     <t>Y/N</t>
   </si>
@@ -2717,12 +2716,15 @@
   </si>
   <si>
     <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3063,7 +3065,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -3145,6 +3147,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3160,52 +3193,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{7AAA6E6A-CC20-4F01-A53C-042CD53100E1}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{84397F7D-D46F-4276-B7E0-CFB0F0C2E0E9}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3513,13 +3520,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A7EDC1-F80D-4529-9248-F821B9DF7BD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,44 +3538,45 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" customWidth="1"/>
-    <col min="31" max="31" width="9.42578125" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" customWidth="1"/>
+    <col min="27" max="27" width="12" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" customWidth="1"/>
+    <col min="32" max="32" width="9.42578125" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:35" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>42</v>
       </c>
@@ -3586,7 +3594,7 @@
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>37</v>
       </c>
@@ -3598,53 +3606,54 @@
       <c r="E3" s="20"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:34" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="28" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="30"/>
-      <c r="AG5" s="17"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="43"/>
       <c r="AH5" s="17"/>
-    </row>
-    <row r="6" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI5" s="17"/>
+    </row>
+    <row r="6" spans="1:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
@@ -3667,73 +3676,76 @@
         <v>26</v>
       </c>
       <c r="H6" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="O6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="S6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="T6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="U6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="V6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="W6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="X6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="Y6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Z6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="AA6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AB6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AC6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AC6" s="12" t="s">
+      <c r="AD6" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -3745,12 +3757,12 @@
       <c r="G7" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -3759,18 +3771,19 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-      <c r="V7" s="8"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -3780,12 +3793,12 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
@@ -3794,16 +3807,17 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
-      <c r="V8" s="8"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="7"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="7"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -3813,12 +3827,12 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -3827,16 +3841,17 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="8"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="7"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="7"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -3846,12 +3861,12 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
@@ -3860,16 +3875,17 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="8"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="7"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="7"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
@@ -3879,12 +3895,12 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
@@ -3893,16 +3909,17 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="8"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="7"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="7"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -3912,12 +3929,12 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -3926,16 +3943,17 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="8"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="7"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -3945,12 +3963,12 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
@@ -3959,16 +3977,17 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="8"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="7"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="7"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>8</v>
       </c>
@@ -3978,12 +3997,12 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
@@ -3992,16 +4011,17 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="8"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="7"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="7"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>9</v>
       </c>
@@ -4011,12 +4031,12 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
@@ -4025,16 +4045,17 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="8"/>
+      <c r="V15" s="9"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="7"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="7"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>10</v>
       </c>
@@ -4044,12 +4065,12 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -4058,16 +4079,17 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="8"/>
+      <c r="V16" s="9"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="7"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="7"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -4077,12 +4099,12 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -4091,16 +4113,17 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="8"/>
+      <c r="V17" s="9"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="7"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="7"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -4110,12 +4133,12 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
@@ -4124,16 +4147,17 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="8"/>
+      <c r="V18" s="9"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="7"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="7"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -4143,12 +4167,12 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
@@ -4157,16 +4181,17 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="8"/>
+      <c r="V19" s="9"/>
       <c r="W19" s="8"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="7"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="7"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -4176,12 +4201,12 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -4190,16 +4215,17 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="8"/>
+      <c r="V20" s="9"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="7"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="7"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -4209,12 +4235,12 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -4223,16 +4249,17 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="8"/>
+      <c r="V21" s="9"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="7"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="7"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -4242,12 +4269,12 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -4256,16 +4283,17 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="V22" s="8"/>
+      <c r="V22" s="9"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="7"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="7"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -4275,12 +4303,12 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -4289,16 +4317,17 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="8"/>
+      <c r="V23" s="9"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="7"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -4308,12 +4337,12 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
@@ -4322,16 +4351,17 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="8"/>
+      <c r="V24" s="9"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="7"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -4341,12 +4371,12 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
@@ -4355,16 +4385,17 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="8"/>
+      <c r="V25" s="9"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="7"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="7"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -4374,12 +4405,12 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
@@ -4388,16 +4419,17 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="8"/>
+      <c r="V26" s="9"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="7"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="7"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -4407,12 +4439,12 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -4421,16 +4453,17 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="8"/>
+      <c r="V27" s="9"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="7"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="7"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -4440,12 +4473,12 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="10"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -4454,16 +4487,17 @@
       <c r="S28" s="9"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
-      <c r="V28" s="8"/>
+      <c r="V28" s="9"/>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="7"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="7"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -4473,12 +4507,12 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -4487,16 +4521,17 @@
       <c r="S29" s="9"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
-      <c r="V29" s="8"/>
+      <c r="V29" s="9"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="7"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="7"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -4506,12 +4541,12 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -4520,16 +4555,17 @@
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
-      <c r="V30" s="8"/>
+      <c r="V30" s="9"/>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="7"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="7"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -4539,12 +4575,12 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -4553,16 +4589,17 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
-      <c r="V31" s="8"/>
+      <c r="V31" s="9"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="7"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="7"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -4572,12 +4609,12 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -4586,16 +4623,17 @@
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
-      <c r="V32" s="8"/>
+      <c r="V32" s="9"/>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="7"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="7"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -4605,12 +4643,12 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -4619,16 +4657,17 @@
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
-      <c r="V33" s="8"/>
+      <c r="V33" s="9"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="7"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="7"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>28</v>
       </c>
@@ -4638,12 +4677,12 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -4652,16 +4691,17 @@
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
-      <c r="V34" s="8"/>
+      <c r="V34" s="9"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="7"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="7"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>29</v>
       </c>
@@ -4671,12 +4711,12 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -4685,16 +4725,17 @@
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
-      <c r="V35" s="8"/>
+      <c r="V35" s="9"/>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="7"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="7"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>30</v>
       </c>
@@ -4704,12 +4745,12 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
@@ -4718,16 +4759,17 @@
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
-      <c r="V36" s="8"/>
+      <c r="V36" s="9"/>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="7"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="7"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>31</v>
       </c>
@@ -4737,12 +4779,12 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
@@ -4751,16 +4793,17 @@
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
-      <c r="V37" s="8"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="7"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="7"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>32</v>
       </c>
@@ -4770,12 +4813,12 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
@@ -4784,16 +4827,17 @@
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
-      <c r="V38" s="8"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="7"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="7"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>33</v>
       </c>
@@ -4803,12 +4847,12 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -4817,16 +4861,17 @@
       <c r="S39" s="9"/>
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
-      <c r="V39" s="8"/>
+      <c r="V39" s="9"/>
       <c r="W39" s="8"/>
       <c r="X39" s="8"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="7"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="7"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>34</v>
       </c>
@@ -4836,12 +4881,12 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
@@ -4850,16 +4895,17 @@
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
-      <c r="V40" s="8"/>
+      <c r="V40" s="9"/>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="7"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="7"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>35</v>
       </c>
@@ -4869,12 +4915,12 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -4883,16 +4929,17 @@
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
-      <c r="V41" s="8"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="7"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="7"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>36</v>
       </c>
@@ -4902,12 +4949,12 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -4916,16 +4963,17 @@
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
-      <c r="V42" s="8"/>
+      <c r="V42" s="9"/>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="7"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="7"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>37</v>
       </c>
@@ -4935,12 +4983,12 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -4949,16 +4997,17 @@
       <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
-      <c r="V43" s="8"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="7"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="7"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>38</v>
       </c>
@@ -4968,12 +5017,12 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
@@ -4982,16 +5031,17 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
-      <c r="V44" s="8"/>
+      <c r="V44" s="9"/>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="7"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="7"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>39</v>
       </c>
@@ -5001,12 +5051,12 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -5015,16 +5065,17 @@
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
-      <c r="V45" s="8"/>
+      <c r="V45" s="9"/>
       <c r="W45" s="8"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="7"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="7"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>40</v>
       </c>
@@ -5034,12 +5085,12 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -5048,16 +5099,17 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-      <c r="V46" s="8"/>
+      <c r="V46" s="9"/>
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="7"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="7"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>41</v>
       </c>
@@ -5067,12 +5119,12 @@
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -5081,16 +5133,17 @@
       <c r="S47" s="9"/>
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
-      <c r="V47" s="8"/>
+      <c r="V47" s="9"/>
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="7"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="7"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>42</v>
       </c>
@@ -5100,12 +5153,12 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="10"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
@@ -5114,16 +5167,17 @@
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
-      <c r="V48" s="8"/>
+      <c r="V48" s="9"/>
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="7"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="7"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43</v>
       </c>
@@ -5133,12 +5187,12 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
@@ -5147,16 +5201,17 @@
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
-      <c r="V49" s="8"/>
+      <c r="V49" s="9"/>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
-      <c r="AA49" s="9"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="7"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="7"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>44</v>
       </c>
@@ -5187,9 +5242,10 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="6"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="6"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>45</v>
       </c>
@@ -5220,9 +5276,10 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
-      <c r="AC51" s="3"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="3"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>46</v>
       </c>
@@ -5253,9 +5310,10 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
-      <c r="AC52" s="3"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="3"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>47</v>
       </c>
@@ -5286,9 +5344,10 @@
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
-      <c r="AC53" s="3"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="3"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>48</v>
       </c>
@@ -5319,9 +5378,10 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
-      <c r="AC54" s="3"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="3"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>49</v>
       </c>
@@ -5352,9 +5412,10 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
-      <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>50</v>
       </c>
@@ -5386,32 +5447,33 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u4NwZww+HOwJNBgKl+eG8Kbiily5Ix9zIN3rZVKiTMwzhOu4iRlWbb2vgV+1PjVytwL2/WgVjdMfBvNbP06w/Q==" saltValue="/1h08MyhcAA9PoaoZ1kRew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NZtUlpyn/sP3jm74Qq1gQZAQMPNln7+6+Ycyjl6o7KCJWATfooEyI8SqEleWMQfiURoU/qSwm19Dcd8u8pvMVQ==" saltValue="rwaspX73NO8IVF0+gPkfRw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="L5:AC5"/>
-    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B56" xr:uid="{7A43D44A-74C5-41B0-8B74-5444E9521FA5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B56">
       <formula1>Salutation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E56" xr:uid="{262778F7-334F-4503-B4D1-3BA2768DC1C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E56">
       <formula1>Gender</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F56" xr:uid="{B5006E78-42DB-4391-B1CD-BB9E28A3CE70}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F56">
       <formula1>DisabilityType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H56" xr:uid="{A863C274-A256-4D44-B65A-D4C5BBB9EAE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I56">
       <formula1>GuardianType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N47:N56" xr:uid="{446B8A23-6ED0-4C26-AD1B-E61BAFA930D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O47:O56">
       <formula1>ListOfStates</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O47:O56" xr:uid="{261598C5-2C80-4A47-B21A-63A9C15C1826}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P47:P56">
       <formula1>Districts</formula1>
     </dataValidation>
   </dataValidations>
@@ -5420,11 +5482,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{949FA4E7-A92D-4DF0-AC1E-DE855D067ABD}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Drop Down values'!$A$1</xm:f>
           </x14:formula1>
-          <xm:sqref>N7:N46</xm:sqref>
+          <xm:sqref>O7:O46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5433,7 +5495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6452AB3D-A31B-4517-877F-B5D361F1743E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I860"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5452,4566 +5514,4566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>889</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>890</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="34" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="34" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="I18" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="34" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="39" t="s">
+      <c r="I20" s="34" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="34" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="34" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="30" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="30" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="30" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="30" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="30" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="30" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="30" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="30" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="30" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="30" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="30" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="30" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="30" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="30" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="30" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="30" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="30" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="30" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="30" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="30" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="30" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="30" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="30" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="30" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="30" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="30" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="30" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="30" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="30" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="30" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="30" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="30" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="30" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="30" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="30" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="30" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="30" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="30" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="30" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="30" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="30" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="30" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="30" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="30" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="30" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="30" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="35" t="s">
+      <c r="B94" s="30" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="35" t="s">
+      <c r="B95" s="30" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="30" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="30" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="30" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="30" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="30" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="35" t="s">
+      <c r="B102" s="30" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="30" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="30" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="30" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="30" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="30" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="30" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="35" t="s">
+      <c r="B115" s="30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="30" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="35" t="s">
+      <c r="B118" s="30" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="35" t="s">
+      <c r="B121" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="35" t="s">
+      <c r="B122" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="35" t="s">
+      <c r="B123" s="30" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="35" t="s">
+      <c r="B124" s="30" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="35" t="s">
+      <c r="B125" s="30" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="35" t="s">
+      <c r="B126" s="30" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="35" t="s">
+      <c r="B127" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="30" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="35" t="s">
+      <c r="B129" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="35" t="s">
+      <c r="B130" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="35" t="s">
+      <c r="B131" s="30" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="35" t="s">
+      <c r="B132" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="35" t="s">
+      <c r="B133" s="30" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="35" t="s">
+      <c r="B134" s="30" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="35" t="s">
+      <c r="B135" s="30" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="30" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="35" t="s">
+      <c r="B137" s="30" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="35" t="s">
+      <c r="B138" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="35" t="s">
+      <c r="B139" s="30" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="35" t="s">
+      <c r="B140" s="30" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="35" t="s">
+      <c r="B141" s="30" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="35" t="s">
+      <c r="B142" s="30" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="30" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="35" t="s">
+      <c r="B144" s="30" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="30" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="35" t="s">
+      <c r="B146" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="30" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="35" t="s">
+      <c r="B148" s="30" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="35" t="s">
+      <c r="B149" s="30" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="35" t="s">
+      <c r="B150" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="35" t="s">
+      <c r="B151" s="30" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="35" t="s">
+      <c r="B152" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="35" t="s">
+      <c r="B153" s="30" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="35" t="s">
+      <c r="B154" s="30" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="35" t="s">
+      <c r="B155" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="35" t="s">
+      <c r="B156" s="30" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="35" t="s">
+      <c r="B157" s="30" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="35" t="s">
+      <c r="B158" s="30" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="35" t="s">
+      <c r="B159" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="35" t="s">
+      <c r="B160" s="30" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="35" t="s">
+      <c r="B161" s="30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="35" t="s">
+      <c r="B162" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="35" t="s">
+      <c r="B163" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="35" t="s">
+      <c r="B164" s="30" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="35" t="s">
+      <c r="B165" s="30" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="35" t="s">
+      <c r="B166" s="30" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="35" t="s">
+      <c r="B167" s="30" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="35" t="s">
+      <c r="B168" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="35" t="s">
+      <c r="B169" s="30" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="35" t="s">
+      <c r="B170" s="30" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="35" t="s">
+      <c r="B171" s="30" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="35" t="s">
+      <c r="B172" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="35" t="s">
+      <c r="B173" s="30" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="35" t="s">
+      <c r="B174" s="30" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="35" t="s">
+      <c r="B175" s="30" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="35" t="s">
+      <c r="B176" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="30" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="35" t="s">
+      <c r="B178" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="35" t="s">
+      <c r="B179" s="30" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="35" t="s">
+      <c r="B180" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="35" t="s">
+      <c r="B181" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="35" t="s">
+      <c r="B182" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="35" t="s">
+      <c r="B183" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="35" t="s">
+      <c r="B184" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="35" t="s">
+      <c r="B185" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="35" t="s">
+      <c r="B186" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="35" t="s">
+      <c r="B187" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="35" t="s">
+      <c r="B188" s="30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="35" t="s">
+      <c r="B189" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="35" t="s">
+      <c r="B190" s="30" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="35" t="s">
+      <c r="B191" s="30" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="35" t="s">
+      <c r="B192" s="30" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="35" t="s">
+      <c r="B193" s="30" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="35" t="s">
+      <c r="B194" s="30" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="35" t="s">
+      <c r="B195" s="30" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="35" t="s">
+      <c r="B196" s="30" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="35" t="s">
+      <c r="B197" s="30" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="35" t="s">
+      <c r="B198" s="30" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="35" t="s">
+      <c r="B199" s="30" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="35" t="s">
+      <c r="B200" s="30" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="35" t="s">
+      <c r="B201" s="30" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="35" t="s">
+      <c r="B202" s="30" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="35" t="s">
+      <c r="B203" s="30" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="35" t="s">
+      <c r="B204" s="30" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="35" t="s">
+      <c r="B205" s="30" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="35" t="s">
+      <c r="B206" s="30" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="35" t="s">
+      <c r="B207" s="30" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="35" t="s">
+      <c r="B208" s="30" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="35" t="s">
+      <c r="B209" s="30" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="35" t="s">
+      <c r="B210" s="30" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="35" t="s">
+      <c r="B211" s="30" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="35" t="s">
+      <c r="B212" s="30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="35" t="s">
+      <c r="B213" s="30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="35" t="s">
+      <c r="B214" s="30" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="35" t="s">
+      <c r="B215" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="35" t="s">
+      <c r="B216" s="30" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="35" t="s">
+      <c r="B217" s="30" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="35" t="s">
+      <c r="B218" s="30" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="35" t="s">
+      <c r="B219" s="30" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="35" t="s">
+      <c r="B220" s="30" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="35" t="s">
+      <c r="B221" s="30" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="35" t="s">
+      <c r="B222" s="30" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="35" t="s">
+      <c r="B223" s="30" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="35" t="s">
+      <c r="B224" s="30" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="35" t="s">
+      <c r="B225" s="30" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="35" t="s">
+      <c r="B226" s="30" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="35" t="s">
+      <c r="B227" s="30" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="35" t="s">
+      <c r="B228" s="30" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="35" t="s">
+      <c r="B229" s="30" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="35" t="s">
+      <c r="B230" s="30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="35" t="s">
+      <c r="B231" s="30" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="35" t="s">
+      <c r="B232" s="30" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="35" t="s">
+      <c r="B233" s="30" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="35" t="s">
+      <c r="B234" s="30" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="35" t="s">
+      <c r="B235" s="30" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="35" t="s">
+      <c r="B236" s="30" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="35" t="s">
+      <c r="B237" s="30" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="35" t="s">
+      <c r="B238" s="30" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="35" t="s">
+      <c r="B239" s="30" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="35" t="s">
+      <c r="B240" s="30" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="35" t="s">
+      <c r="B241" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="35" t="s">
+      <c r="B242" s="30" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="35" t="s">
+      <c r="B243" s="30" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="35" t="s">
+      <c r="B244" s="30" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="35" t="s">
+      <c r="B245" s="30" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="35" t="s">
+      <c r="B246" s="30" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="35" t="s">
+      <c r="B247" s="30" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="35" t="s">
+      <c r="B248" s="30" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="35" t="s">
+      <c r="B249" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="35" t="s">
+      <c r="B250" s="30" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="35" t="s">
+      <c r="B251" s="30" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="35" t="s">
+      <c r="B252" s="30" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="35" t="s">
+      <c r="B253" s="30" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="35" t="s">
+      <c r="B254" s="30" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="35" t="s">
+      <c r="B255" s="30" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="35" t="s">
+      <c r="B256" s="30" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="35" t="s">
+      <c r="B257" s="30" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="35" t="s">
+      <c r="B258" s="30" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="35" t="s">
+      <c r="B259" s="30" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="35" t="s">
+      <c r="B260" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="35" t="s">
+      <c r="B261" s="30" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="35" t="s">
+      <c r="B262" s="30" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="35" t="s">
+      <c r="B263" s="30" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="35" t="s">
+      <c r="B264" s="30" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="35" t="s">
+      <c r="B265" s="30" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="35" t="s">
+      <c r="B266" s="30" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="35" t="s">
+      <c r="B267" s="30" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="35" t="s">
+      <c r="B268" s="30" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="35" t="s">
+      <c r="B269" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="35" t="s">
+      <c r="B270" s="30" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="35" t="s">
+      <c r="B271" s="30" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="35" t="s">
+      <c r="B272" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="35" t="s">
+      <c r="B273" s="30" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="35" t="s">
+      <c r="B274" s="30" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="35" t="s">
+      <c r="B275" s="30" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="35" t="s">
+      <c r="B276" s="30" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="35" t="s">
+      <c r="B277" s="30" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="30" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="35" t="s">
+      <c r="B279" s="30" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="35" t="s">
+      <c r="B280" s="30" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="35" t="s">
+      <c r="B281" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="35" t="s">
+      <c r="B282" s="30" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="35" t="s">
+      <c r="B283" s="30" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="35" t="s">
+      <c r="B284" s="30" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="35" t="s">
+      <c r="B285" s="30" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="35" t="s">
+      <c r="B286" s="30" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="35" t="s">
+      <c r="B287" s="30" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="35" t="s">
+      <c r="B288" s="30" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="35" t="s">
+      <c r="B289" s="30" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="35" t="s">
+      <c r="B290" s="30" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="35" t="s">
+      <c r="B291" s="30" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="35" t="s">
+      <c r="B292" s="30" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="35" t="s">
+      <c r="B293" s="30" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="35" t="s">
+      <c r="B294" s="30" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="35" t="s">
+      <c r="B295" s="30" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="35" t="s">
+      <c r="B296" s="30" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="35" t="s">
+      <c r="B297" s="30" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="35" t="s">
+      <c r="B298" s="30" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="35" t="s">
+      <c r="B299" s="30" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="35" t="s">
+      <c r="B300" s="30" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="35" t="s">
+      <c r="B301" s="30" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="35" t="s">
+      <c r="B302" s="30" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="35" t="s">
+      <c r="B303" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="35" t="s">
+      <c r="B304" s="30" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="35" t="s">
+      <c r="B305" s="30" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="35" t="s">
+      <c r="B306" s="30" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="35" t="s">
+      <c r="B307" s="30" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="35" t="s">
+      <c r="B308" s="30" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="35" t="s">
+      <c r="B309" s="30" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="35" t="s">
+      <c r="B310" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="35" t="s">
+      <c r="B311" s="30" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="35" t="s">
+      <c r="B312" s="30" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="35" t="s">
+      <c r="B313" s="30" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="35" t="s">
+      <c r="B314" s="30" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="35" t="s">
+      <c r="B315" s="30" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="35" t="s">
+      <c r="B316" s="30" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="35" t="s">
+      <c r="B317" s="30" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="35" t="s">
+      <c r="B318" s="30" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="35" t="s">
+      <c r="B319" s="30" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="35" t="s">
+      <c r="B320" s="30" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="35" t="s">
+      <c r="B321" s="30" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="35" t="s">
+      <c r="B322" s="30" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="35" t="s">
+      <c r="B323" s="30" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="35" t="s">
+      <c r="B324" s="30" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="35" t="s">
+      <c r="B325" s="30" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="35" t="s">
+      <c r="B326" s="30" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="35" t="s">
+      <c r="B327" s="30" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="35" t="s">
+      <c r="B328" s="30" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="35" t="s">
+      <c r="B329" s="30" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="35" t="s">
+      <c r="B330" s="30" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="35" t="s">
+      <c r="B331" s="30" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="35" t="s">
+      <c r="B332" s="30" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="35" t="s">
+      <c r="B333" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="35" t="s">
+      <c r="B334" s="30" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="35" t="s">
+      <c r="B335" s="30" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="35" t="s">
+      <c r="B336" s="30" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="35" t="s">
+      <c r="B337" s="30" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="35" t="s">
+      <c r="B338" s="30" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="35" t="s">
+      <c r="B339" s="30" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="35" t="s">
+      <c r="B340" s="30" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="35" t="s">
+      <c r="B341" s="30" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="35" t="s">
+      <c r="B342" s="30" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="35" t="s">
+      <c r="B343" s="30" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="35" t="s">
+      <c r="B344" s="30" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="35" t="s">
+      <c r="B345" s="30" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="35" t="s">
+      <c r="B346" s="30" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="35" t="s">
+      <c r="B347" s="30" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="35" t="s">
+      <c r="B348" s="30" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="35" t="s">
+      <c r="B349" s="30" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="35" t="s">
+      <c r="B350" s="30" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="35" t="s">
+      <c r="B351" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="35" t="s">
+      <c r="B352" s="30" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="35" t="s">
+      <c r="B353" s="30" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="35" t="s">
+      <c r="B354" s="30" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="35" t="s">
+      <c r="B355" s="30" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="35" t="s">
+      <c r="B356" s="30" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="35" t="s">
+      <c r="B357" s="30" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="35" t="s">
+      <c r="B358" s="30" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="35" t="s">
+      <c r="B359" s="30" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="35" t="s">
+      <c r="B360" s="30" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="35" t="s">
+      <c r="B361" s="30" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="35" t="s">
+      <c r="B362" s="30" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="35" t="s">
+      <c r="B363" s="30" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="35" t="s">
+      <c r="B364" s="30" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="35" t="s">
+      <c r="B365" s="30" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="35" t="s">
+      <c r="B366" s="30" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="35" t="s">
+      <c r="B367" s="30" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="35" t="s">
+      <c r="B368" s="30" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="35" t="s">
+      <c r="B369" s="30" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="35" t="s">
+      <c r="B370" s="30" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="35" t="s">
+      <c r="B371" s="30" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="35" t="s">
+      <c r="B372" s="30" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="35" t="s">
+      <c r="B373" s="30" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="35" t="s">
+      <c r="B374" s="30" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="35" t="s">
+      <c r="B375" s="30" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="35" t="s">
+      <c r="B376" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="35" t="s">
+      <c r="B377" s="30" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="35" t="s">
+      <c r="B378" s="30" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="35" t="s">
+      <c r="B379" s="30" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="35" t="s">
+      <c r="B380" s="30" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="35" t="s">
+      <c r="B381" s="30" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="35" t="s">
+      <c r="B382" s="30" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="35" t="s">
+      <c r="B383" s="30" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="35" t="s">
+      <c r="B384" s="30" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="35" t="s">
+      <c r="B385" s="30" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="35" t="s">
+      <c r="B386" s="30" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="35" t="s">
+      <c r="B387" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="35" t="s">
+      <c r="B388" s="30" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="35" t="s">
+      <c r="B389" s="30" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="35" t="s">
+      <c r="B390" s="30" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="35" t="s">
+      <c r="B391" s="30" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" s="35" t="s">
+      <c r="B392" s="30" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="35" t="s">
+      <c r="B393" s="30" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="35" t="s">
+      <c r="B394" s="30" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="35" t="s">
+      <c r="B395" s="30" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" s="35" t="s">
+      <c r="B396" s="30" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="35" t="s">
+      <c r="B397" s="30" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="35" t="s">
+      <c r="B398" s="30" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="35" t="s">
+      <c r="B399" s="30" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="35" t="s">
+      <c r="B400" s="30" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="35" t="s">
+      <c r="B401" s="30" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="35" t="s">
+      <c r="B402" s="30" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="35" t="s">
+      <c r="B403" s="30" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="35" t="s">
+      <c r="B404" s="30" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="35" t="s">
+      <c r="B405" s="30" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="35" t="s">
+      <c r="B406" s="30" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" s="35" t="s">
+      <c r="B407" s="30" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="35" t="s">
+      <c r="B408" s="30" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="35" t="s">
+      <c r="B409" s="30" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="35" t="s">
+      <c r="B410" s="30" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="35" t="s">
+      <c r="B411" s="30" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="35" t="s">
+      <c r="B412" s="30" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="35" t="s">
+      <c r="B413" s="30" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="35" t="s">
+      <c r="B414" s="30" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="35" t="s">
+      <c r="B415" s="30" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="35" t="s">
+      <c r="B416" s="30" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="35" t="s">
+      <c r="B417" s="30" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="35" t="s">
+      <c r="B418" s="30" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="35" t="s">
+      <c r="B419" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="35" t="s">
+      <c r="B420" s="30" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="35" t="s">
+      <c r="B421" s="30" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="35" t="s">
+      <c r="B422" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="35" t="s">
+      <c r="B423" s="30" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="35" t="s">
+      <c r="B424" s="30" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="35" t="s">
+      <c r="B425" s="30" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="35" t="s">
+      <c r="B426" s="30" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="35" t="s">
+      <c r="B427" s="30" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="35" t="s">
+      <c r="B428" s="30" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="35" t="s">
+      <c r="B429" s="30" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" s="35" t="s">
+      <c r="B430" s="30" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" s="35" t="s">
+      <c r="B431" s="30" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" s="35" t="s">
+      <c r="B432" s="30" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" s="35" t="s">
+      <c r="B433" s="30" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" s="35" t="s">
+      <c r="B434" s="30" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="35" t="s">
+      <c r="B435" s="30" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="35" t="s">
+      <c r="B436" s="30" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" s="35" t="s">
+      <c r="B437" s="30" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" s="35" t="s">
+      <c r="B438" s="30" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="35" t="s">
+      <c r="B439" s="30" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" s="35" t="s">
+      <c r="B440" s="30" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" s="35" t="s">
+      <c r="B441" s="30" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" s="35" t="s">
+      <c r="B442" s="30" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" s="35" t="s">
+      <c r="B443" s="30" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" s="35" t="s">
+      <c r="B444" s="30" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" s="35" t="s">
+      <c r="B445" s="30" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" s="35" t="s">
+      <c r="B446" s="30" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" s="35" t="s">
+      <c r="B447" s="30" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" s="35" t="s">
+      <c r="B448" s="30" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" s="35" t="s">
+      <c r="B449" s="30" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" s="35" t="s">
+      <c r="B450" s="30" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" s="35" t="s">
+      <c r="B451" s="30" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" s="35" t="s">
+      <c r="B452" s="30" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" s="35" t="s">
+      <c r="B453" s="30" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" s="35" t="s">
+      <c r="B454" s="30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" s="35" t="s">
+      <c r="B455" s="30" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" s="35" t="s">
+      <c r="B456" s="30" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" s="35" t="s">
+      <c r="B457" s="30" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" s="35" t="s">
+      <c r="B458" s="30" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" s="35" t="s">
+      <c r="B459" s="30" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" s="35" t="s">
+      <c r="B460" s="30" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" s="35" t="s">
+      <c r="B461" s="30" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" s="35" t="s">
+      <c r="B462" s="30" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" s="35" t="s">
+      <c r="B463" s="30" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" s="35" t="s">
+      <c r="B464" s="30" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" s="35" t="s">
+      <c r="B465" s="30" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" s="35" t="s">
+      <c r="B466" s="30" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" s="35" t="s">
+      <c r="B467" s="30" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" s="35" t="s">
+      <c r="B468" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" s="35" t="s">
+      <c r="B469" s="30" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" s="35" t="s">
+      <c r="B470" s="30" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" s="35" t="s">
+      <c r="B471" s="30" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" s="35" t="s">
+      <c r="B472" s="30" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" s="35" t="s">
+      <c r="B473" s="30" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" s="35" t="s">
+      <c r="B474" s="30" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" s="35" t="s">
+      <c r="B475" s="30" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" s="35" t="s">
+      <c r="B476" s="30" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" s="35" t="s">
+      <c r="B477" s="30" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" s="35" t="s">
+      <c r="B478" s="30" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" s="35" t="s">
+      <c r="B479" s="30" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" s="35" t="s">
+      <c r="B480" s="30" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" s="35" t="s">
+      <c r="B481" s="30" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" s="35" t="s">
+      <c r="B482" s="30" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" s="35" t="s">
+      <c r="B483" s="30" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" s="35" t="s">
+      <c r="B484" s="30" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" s="35" t="s">
+      <c r="B485" s="30" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" s="35" t="s">
+      <c r="B486" s="30" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" s="35" t="s">
+      <c r="B487" s="30" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B488" s="35" t="s">
+      <c r="B488" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B489" s="35" t="s">
+      <c r="B489" s="30" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B490" s="35" t="s">
+      <c r="B490" s="30" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B491" s="35" t="s">
+      <c r="B491" s="30" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B492" s="35" t="s">
+      <c r="B492" s="30" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B493" s="35" t="s">
+      <c r="B493" s="30" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B494" s="35" t="s">
+      <c r="B494" s="30" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B495" s="35" t="s">
+      <c r="B495" s="30" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B496" s="35" t="s">
+      <c r="B496" s="30" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" s="35" t="s">
+      <c r="B497" s="30" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" s="35" t="s">
+      <c r="B498" s="30" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" s="35" t="s">
+      <c r="B499" s="30" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" s="35" t="s">
+      <c r="B500" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B501" s="35" t="s">
+      <c r="B501" s="30" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B502" s="35" t="s">
+      <c r="B502" s="30" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B503" s="35" t="s">
+      <c r="B503" s="30" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B504" s="35" t="s">
+      <c r="B504" s="30" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B505" s="35" t="s">
+      <c r="B505" s="30" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B506" s="35" t="s">
+      <c r="B506" s="30" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B507" s="35" t="s">
+      <c r="B507" s="30" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B508" s="35" t="s">
+      <c r="B508" s="30" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B509" s="35" t="s">
+      <c r="B509" s="30" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B510" s="35" t="s">
+      <c r="B510" s="30" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B511" s="35" t="s">
+      <c r="B511" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B512" s="35" t="s">
+      <c r="B512" s="30" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B513" s="35" t="s">
+      <c r="B513" s="30" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B514" s="35" t="s">
+      <c r="B514" s="30" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B515" s="35" t="s">
+      <c r="B515" s="30" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B516" s="35" t="s">
+      <c r="B516" s="30" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B517" s="35" t="s">
+      <c r="B517" s="30" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B518" s="35" t="s">
+      <c r="B518" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B519" s="35" t="s">
+      <c r="B519" s="30" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B520" s="35" t="s">
+      <c r="B520" s="30" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B521" s="35" t="s">
+      <c r="B521" s="30" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B522" s="35" t="s">
+      <c r="B522" s="30" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B523" s="35" t="s">
+      <c r="B523" s="30" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B524" s="35" t="s">
+      <c r="B524" s="30" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B525" s="35" t="s">
+      <c r="B525" s="30" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B526" s="35" t="s">
+      <c r="B526" s="30" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B527" s="35" t="s">
+      <c r="B527" s="30" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B528" s="35" t="s">
+      <c r="B528" s="30" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B529" s="35" t="s">
+      <c r="B529" s="30" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B530" s="35" t="s">
+      <c r="B530" s="30" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B531" s="35" t="s">
+      <c r="B531" s="30" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B532" s="35" t="s">
+      <c r="B532" s="30" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B533" s="35" t="s">
+      <c r="B533" s="30" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B534" s="35" t="s">
+      <c r="B534" s="30" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B535" s="35" t="s">
+      <c r="B535" s="30" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B536" s="35" t="s">
+      <c r="B536" s="30" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B537" s="35" t="s">
+      <c r="B537" s="30" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B538" s="35" t="s">
+      <c r="B538" s="30" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B539" s="35" t="s">
+      <c r="B539" s="30" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B540" s="35" t="s">
+      <c r="B540" s="30" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B541" s="35" t="s">
+      <c r="B541" s="30" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B542" s="35" t="s">
+      <c r="B542" s="30" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B543" s="35" t="s">
+      <c r="B543" s="30" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B544" s="35" t="s">
+      <c r="B544" s="30" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B545" s="35" t="s">
+      <c r="B545" s="30" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B546" s="35" t="s">
+      <c r="B546" s="30" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B547" s="35" t="s">
+      <c r="B547" s="30" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B548" s="35" t="s">
+      <c r="B548" s="30" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B549" s="35" t="s">
+      <c r="B549" s="30" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B550" s="35" t="s">
+      <c r="B550" s="30" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B551" s="35" t="s">
+      <c r="B551" s="30" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B552" s="35" t="s">
+      <c r="B552" s="30" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B553" s="35" t="s">
+      <c r="B553" s="30" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B554" s="35" t="s">
+      <c r="B554" s="30" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B555" s="35" t="s">
+      <c r="B555" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B556" s="35" t="s">
+      <c r="B556" s="30" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B557" s="35" t="s">
+      <c r="B557" s="30" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B558" s="35" t="s">
+      <c r="B558" s="30" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B559" s="35" t="s">
+      <c r="B559" s="30" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B560" s="35" t="s">
+      <c r="B560" s="30" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B561" s="35" t="s">
+      <c r="B561" s="30" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B562" s="35" t="s">
+      <c r="B562" s="30" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B563" s="35" t="s">
+      <c r="B563" s="30" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B564" s="35" t="s">
+      <c r="B564" s="30" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B565" s="35" t="s">
+      <c r="B565" s="30" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B566" s="35" t="s">
+      <c r="B566" s="30" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B567" s="35" t="s">
+      <c r="B567" s="30" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B568" s="35" t="s">
+      <c r="B568" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B569" s="35" t="s">
+      <c r="B569" s="30" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B570" s="35" t="s">
+      <c r="B570" s="30" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B571" s="35" t="s">
+      <c r="B571" s="30" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B572" s="35" t="s">
+      <c r="B572" s="30" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B573" s="35" t="s">
+      <c r="B573" s="30" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B574" s="35" t="s">
+      <c r="B574" s="30" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B575" s="35" t="s">
+      <c r="B575" s="30" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B576" s="35" t="s">
+      <c r="B576" s="30" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B577" s="35" t="s">
+      <c r="B577" s="30" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B578" s="35" t="s">
+      <c r="B578" s="30" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B579" s="35" t="s">
+      <c r="B579" s="30" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B580" s="35" t="s">
+      <c r="B580" s="30" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B581" s="35" t="s">
+      <c r="B581" s="30" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B582" s="35" t="s">
+      <c r="B582" s="30" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B583" s="35" t="s">
+      <c r="B583" s="30" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B584" s="35" t="s">
+      <c r="B584" s="30" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B585" s="35" t="s">
+      <c r="B585" s="30" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B586" s="35" t="s">
+      <c r="B586" s="30" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B587" s="35" t="s">
+      <c r="B587" s="30" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B588" s="35" t="s">
+      <c r="B588" s="30" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B589" s="35" t="s">
+      <c r="B589" s="30" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B590" s="35" t="s">
+      <c r="B590" s="30" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B591" s="35" t="s">
+      <c r="B591" s="30" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B592" s="35" t="s">
+      <c r="B592" s="30" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B593" s="35" t="s">
+      <c r="B593" s="30" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B594" s="35" t="s">
+      <c r="B594" s="30" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B595" s="35" t="s">
+      <c r="B595" s="30" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B596" s="35" t="s">
+      <c r="B596" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B597" s="35" t="s">
+      <c r="B597" s="30" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B598" s="35" t="s">
+      <c r="B598" s="30" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B599" s="35" t="s">
+      <c r="B599" s="30" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B600" s="35" t="s">
+      <c r="B600" s="30" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B601" s="35" t="s">
+      <c r="B601" s="30" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B602" s="35" t="s">
+      <c r="B602" s="30" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B603" s="35" t="s">
+      <c r="B603" s="30" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B604" s="35" t="s">
+      <c r="B604" s="30" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B605" s="35" t="s">
+      <c r="B605" s="30" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B606" s="35" t="s">
+      <c r="B606" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B607" s="35" t="s">
+      <c r="B607" s="30" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B608" s="35" t="s">
+      <c r="B608" s="30" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B609" s="35" t="s">
+      <c r="B609" s="30" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B610" s="35" t="s">
+      <c r="B610" s="30" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B611" s="35" t="s">
+      <c r="B611" s="30" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B612" s="35" t="s">
+      <c r="B612" s="30" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B613" s="35" t="s">
+      <c r="B613" s="30" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="614" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B614" s="35" t="s">
+      <c r="B614" s="30" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="615" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B615" s="35" t="s">
+      <c r="B615" s="30" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="616" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B616" s="35" t="s">
+      <c r="B616" s="30" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="617" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B617" s="35" t="s">
+      <c r="B617" s="30" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="618" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B618" s="35" t="s">
+      <c r="B618" s="30" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="619" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B619" s="35" t="s">
+      <c r="B619" s="30" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B620" s="35" t="s">
+      <c r="B620" s="30" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B621" s="35" t="s">
+      <c r="B621" s="30" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="622" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B622" s="35" t="s">
+      <c r="B622" s="30" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B623" s="35" t="s">
+      <c r="B623" s="30" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="624" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B624" s="35" t="s">
+      <c r="B624" s="30" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="625" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B625" s="35" t="s">
+      <c r="B625" s="30" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="626" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B626" s="35" t="s">
+      <c r="B626" s="30" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="627" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B627" s="35" t="s">
+      <c r="B627" s="30" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="628" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B628" s="35" t="s">
+      <c r="B628" s="30" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="629" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B629" s="35" t="s">
+      <c r="B629" s="30" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="630" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B630" s="35" t="s">
+      <c r="B630" s="30" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="631" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B631" s="35" t="s">
+      <c r="B631" s="30" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="632" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B632" s="35" t="s">
+      <c r="B632" s="30" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="633" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B633" s="35" t="s">
+      <c r="B633" s="30" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="634" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B634" s="35" t="s">
+      <c r="B634" s="30" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="635" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B635" s="35" t="s">
+      <c r="B635" s="30" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="636" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B636" s="35" t="s">
+      <c r="B636" s="30" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="637" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B637" s="35" t="s">
+      <c r="B637" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="638" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B638" s="35" t="s">
+      <c r="B638" s="30" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="639" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B639" s="35" t="s">
+      <c r="B639" s="30" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="640" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B640" s="35" t="s">
+      <c r="B640" s="30" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="641" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B641" s="35" t="s">
+      <c r="B641" s="30" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="642" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B642" s="35" t="s">
+      <c r="B642" s="30" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="643" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B643" s="35" t="s">
+      <c r="B643" s="30" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B644" s="35" t="s">
+      <c r="B644" s="30" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="645" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B645" s="35" t="s">
+      <c r="B645" s="30" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="646" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B646" s="35" t="s">
+      <c r="B646" s="30" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="647" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B647" s="35" t="s">
+      <c r="B647" s="30" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="648" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B648" s="35" t="s">
+      <c r="B648" s="30" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="649" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B649" s="35" t="s">
+      <c r="B649" s="30" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="650" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B650" s="35" t="s">
+      <c r="B650" s="30" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="651" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B651" s="35" t="s">
+      <c r="B651" s="30" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="652" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B652" s="35" t="s">
+      <c r="B652" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="653" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B653" s="35" t="s">
+      <c r="B653" s="30" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="654" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B654" s="35" t="s">
+      <c r="B654" s="30" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="655" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B655" s="35" t="s">
+      <c r="B655" s="30" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="656" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B656" s="35" t="s">
+      <c r="B656" s="30" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="657" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B657" s="35" t="s">
+      <c r="B657" s="30" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="658" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B658" s="35" t="s">
+      <c r="B658" s="30" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="659" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B659" s="35" t="s">
+      <c r="B659" s="30" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="660" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B660" s="35" t="s">
+      <c r="B660" s="30" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="661" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B661" s="35" t="s">
+      <c r="B661" s="30" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B662" s="35" t="s">
+      <c r="B662" s="30" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B663" s="35" t="s">
+      <c r="B663" s="30" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="664" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B664" s="35" t="s">
+      <c r="B664" s="30" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="665" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B665" s="35" t="s">
+      <c r="B665" s="30" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="666" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B666" s="35" t="s">
+      <c r="B666" s="30" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="667" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B667" s="35" t="s">
+      <c r="B667" s="30" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B668" s="35" t="s">
+      <c r="B668" s="30" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B669" s="35" t="s">
+      <c r="B669" s="30" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="670" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B670" s="35" t="s">
+      <c r="B670" s="30" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B671" s="35" t="s">
+      <c r="B671" s="30" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="672" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B672" s="35" t="s">
+      <c r="B672" s="30" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="673" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B673" s="35" t="s">
+      <c r="B673" s="30" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="674" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B674" s="35" t="s">
+      <c r="B674" s="30" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B675" s="35" t="s">
+      <c r="B675" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="676" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B676" s="35" t="s">
+      <c r="B676" s="30" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="677" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B677" s="35" t="s">
+      <c r="B677" s="30" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="678" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B678" s="35" t="s">
+      <c r="B678" s="30" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="679" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B679" s="35" t="s">
+      <c r="B679" s="30" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="680" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B680" s="35" t="s">
+      <c r="B680" s="30" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="681" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B681" s="35" t="s">
+      <c r="B681" s="30" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="682" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B682" s="35" t="s">
+      <c r="B682" s="30" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="683" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B683" s="35" t="s">
+      <c r="B683" s="30" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="684" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B684" s="35" t="s">
+      <c r="B684" s="30" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="685" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B685" s="35" t="s">
+      <c r="B685" s="30" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="686" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B686" s="35" t="s">
+      <c r="B686" s="30" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="687" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B687" s="35" t="s">
+      <c r="B687" s="30" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="688" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B688" s="35" t="s">
+      <c r="B688" s="30" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="689" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B689" s="35" t="s">
+      <c r="B689" s="30" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B690" s="35" t="s">
+      <c r="B690" s="30" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="691" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B691" s="35" t="s">
+      <c r="B691" s="30" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="692" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B692" s="35" t="s">
+      <c r="B692" s="30" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="693" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B693" s="35" t="s">
+      <c r="B693" s="30" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="694" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B694" s="35" t="s">
+      <c r="B694" s="30" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="695" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B695" s="35" t="s">
+      <c r="B695" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="696" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B696" s="35" t="s">
+      <c r="B696" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="697" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B697" s="35" t="s">
+      <c r="B697" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="698" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B698" s="35" t="s">
+      <c r="B698" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="699" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B699" s="35" t="s">
+      <c r="B699" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="700" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B700" s="35" t="s">
+      <c r="B700" s="30" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="701" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B701" s="35" t="s">
+      <c r="B701" s="30" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="702" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B702" s="35" t="s">
+      <c r="B702" s="30" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="703" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B703" s="35" t="s">
+      <c r="B703" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="704" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B704" s="35" t="s">
+      <c r="B704" s="30" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B705" s="35" t="s">
+      <c r="B705" s="30" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B706" s="35" t="s">
+      <c r="B706" s="30" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B707" s="35" t="s">
+      <c r="B707" s="30" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B708" s="35" t="s">
+      <c r="B708" s="30" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B709" s="35" t="s">
+      <c r="B709" s="30" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B710" s="35" t="s">
+      <c r="B710" s="30" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="711" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B711" s="35" t="s">
+      <c r="B711" s="30" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B712" s="35" t="s">
+      <c r="B712" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B713" s="35" t="s">
+      <c r="B713" s="30" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B714" s="35" t="s">
+      <c r="B714" s="30" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B715" s="35" t="s">
+      <c r="B715" s="30" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="716" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B716" s="35" t="s">
+      <c r="B716" s="30" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B717" s="35" t="s">
+      <c r="B717" s="30" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B718" s="35" t="s">
+      <c r="B718" s="30" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B719" s="35" t="s">
+      <c r="B719" s="30" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B720" s="35" t="s">
+      <c r="B720" s="30" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B721" s="35" t="s">
+      <c r="B721" s="30" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="722" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B722" s="35" t="s">
+      <c r="B722" s="30" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="723" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B723" s="35" t="s">
+      <c r="B723" s="30" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="724" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B724" s="35" t="s">
+      <c r="B724" s="30" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="725" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B725" s="35" t="s">
+      <c r="B725" s="30" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B726" s="35" t="s">
+      <c r="B726" s="30" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="727" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B727" s="35" t="s">
+      <c r="B727" s="30" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="728" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B728" s="35" t="s">
+      <c r="B728" s="30" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="729" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B729" s="35" t="s">
+      <c r="B729" s="30" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B730" s="35" t="s">
+      <c r="B730" s="30" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B731" s="35" t="s">
+      <c r="B731" s="30" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B732" s="35" t="s">
+      <c r="B732" s="30" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B733" s="35" t="s">
+      <c r="B733" s="30" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B734" s="35" t="s">
+      <c r="B734" s="30" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B735" s="35" t="s">
+      <c r="B735" s="30" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B736" s="35" t="s">
+      <c r="B736" s="30" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B737" s="35" t="s">
+      <c r="B737" s="30" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B738" s="35" t="s">
+      <c r="B738" s="30" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B739" s="35" t="s">
+      <c r="B739" s="30" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B740" s="35" t="s">
+      <c r="B740" s="30" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B741" s="35" t="s">
+      <c r="B741" s="30" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B742" s="35" t="s">
+      <c r="B742" s="30" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B743" s="35" t="s">
+      <c r="B743" s="30" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B744" s="35" t="s">
+      <c r="B744" s="30" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B745" s="35" t="s">
+      <c r="B745" s="30" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B746" s="35" t="s">
+      <c r="B746" s="30" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B747" s="35" t="s">
+      <c r="B747" s="30" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B748" s="35" t="s">
+      <c r="B748" s="30" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B749" s="35" t="s">
+      <c r="B749" s="30" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B750" s="35" t="s">
+      <c r="B750" s="30" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B751" s="35" t="s">
+      <c r="B751" s="30" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B752" s="35" t="s">
+      <c r="B752" s="30" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B753" s="35" t="s">
+      <c r="B753" s="30" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B754" s="35" t="s">
+      <c r="B754" s="30" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B755" s="35" t="s">
+      <c r="B755" s="30" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B756" s="35" t="s">
+      <c r="B756" s="30" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B757" s="35" t="s">
+      <c r="B757" s="30" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B758" s="35" t="s">
+      <c r="B758" s="30" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B759" s="35" t="s">
+      <c r="B759" s="30" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B760" s="35" t="s">
+      <c r="B760" s="30" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B761" s="35" t="s">
+      <c r="B761" s="30" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B762" s="35" t="s">
+      <c r="B762" s="30" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B763" s="35" t="s">
+      <c r="B763" s="30" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B764" s="35" t="s">
+      <c r="B764" s="30" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B765" s="35" t="s">
+      <c r="B765" s="30" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B766" s="35" t="s">
+      <c r="B766" s="30" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B767" s="35" t="s">
+      <c r="B767" s="30" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B768" s="35" t="s">
+      <c r="B768" s="30" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B769" s="35" t="s">
+      <c r="B769" s="30" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B770" s="35" t="s">
+      <c r="B770" s="30" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B771" s="35" t="s">
+      <c r="B771" s="30" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B772" s="35" t="s">
+      <c r="B772" s="30" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B773" s="35" t="s">
+      <c r="B773" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B774" s="35" t="s">
+      <c r="B774" s="30" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B775" s="35" t="s">
+      <c r="B775" s="30" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B776" s="35" t="s">
+      <c r="B776" s="30" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B777" s="35" t="s">
+      <c r="B777" s="30" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B778" s="35" t="s">
+      <c r="B778" s="30" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B779" s="35" t="s">
+      <c r="B779" s="30" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B780" s="35" t="s">
+      <c r="B780" s="30" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B781" s="35" t="s">
+      <c r="B781" s="30" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B782" s="35" t="s">
+      <c r="B782" s="30" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B783" s="35" t="s">
+      <c r="B783" s="30" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B784" s="35" t="s">
+      <c r="B784" s="30" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B785" s="35" t="s">
+      <c r="B785" s="30" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B786" s="35" t="s">
+      <c r="B786" s="30" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B787" s="35" t="s">
+      <c r="B787" s="30" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B788" s="35" t="s">
+      <c r="B788" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B789" s="35" t="s">
+      <c r="B789" s="30" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B790" s="35" t="s">
+      <c r="B790" s="30" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B791" s="35" t="s">
+      <c r="B791" s="30" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B792" s="35" t="s">
+      <c r="B792" s="30" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B793" s="35" t="s">
+      <c r="B793" s="30" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B794" s="35" t="s">
+      <c r="B794" s="30" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B795" s="35" t="s">
+      <c r="B795" s="30" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B796" s="35" t="s">
+      <c r="B796" s="30" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B797" s="35" t="s">
+      <c r="B797" s="30" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B798" s="35" t="s">
+      <c r="B798" s="30" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B799" s="35" t="s">
+      <c r="B799" s="30" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B800" s="35" t="s">
+      <c r="B800" s="30" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B801" s="35" t="s">
+      <c r="B801" s="30" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B802" s="35" t="s">
+      <c r="B802" s="30" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B803" s="35" t="s">
+      <c r="B803" s="30" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B804" s="35" t="s">
+      <c r="B804" s="30" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B805" s="35" t="s">
+      <c r="B805" s="30" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B806" s="35" t="s">
+      <c r="B806" s="30" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B807" s="35" t="s">
+      <c r="B807" s="30" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B808" s="35" t="s">
+      <c r="B808" s="30" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B809" s="35" t="s">
+      <c r="B809" s="30" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B810" s="35" t="s">
+      <c r="B810" s="30" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B811" s="35" t="s">
+      <c r="B811" s="30" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B812" s="35" t="s">
+      <c r="B812" s="30" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B813" s="35" t="s">
+      <c r="B813" s="30" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B814" s="35" t="s">
+      <c r="B814" s="30" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B815" s="35" t="s">
+      <c r="B815" s="30" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B816" s="35" t="s">
+      <c r="B816" s="30" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B817" s="35" t="s">
+      <c r="B817" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B818" s="35" t="s">
+      <c r="B818" s="30" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B819" s="35" t="s">
+      <c r="B819" s="30" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B820" s="35" t="s">
+      <c r="B820" s="30" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B821" s="35" t="s">
+      <c r="B821" s="30" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B822" s="35" t="s">
+      <c r="B822" s="30" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B823" s="35" t="s">
+      <c r="B823" s="30" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B824" s="35" t="s">
+      <c r="B824" s="30" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B825" s="35" t="s">
+      <c r="B825" s="30" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B826" s="35" t="s">
+      <c r="B826" s="30" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B827" s="35" t="s">
+      <c r="B827" s="30" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B828" s="35" t="s">
+      <c r="B828" s="30" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B829" s="35" t="s">
+      <c r="B829" s="30" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B830" s="35" t="s">
+      <c r="B830" s="30" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B831" s="35" t="s">
+      <c r="B831" s="30" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B832" s="35" t="s">
+      <c r="B832" s="30" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B833" s="35" t="s">
+      <c r="B833" s="30" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B834" s="35" t="s">
+      <c r="B834" s="30" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B835" s="35" t="s">
+      <c r="B835" s="30" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B836" s="35" t="s">
+      <c r="B836" s="30" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B837" s="35" t="s">
+      <c r="B837" s="30" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B838" s="35" t="s">
+      <c r="B838" s="30" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B839" s="35" t="s">
+      <c r="B839" s="30" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B840" s="35" t="s">
+      <c r="B840" s="30" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B841" s="35" t="s">
+      <c r="B841" s="30" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B842" s="35" t="s">
+      <c r="B842" s="30" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B843" s="35" t="s">
+      <c r="B843" s="30" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B844" s="35" t="s">
+      <c r="B844" s="30" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B845" s="35" t="s">
+      <c r="B845" s="30" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B846" s="35" t="s">
+      <c r="B846" s="30" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B847" s="35" t="s">
+      <c r="B847" s="30" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B848" s="35" t="s">
+      <c r="B848" s="30" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B849" s="35" t="s">
+      <c r="B849" s="30" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B850" s="35" t="s">
+      <c r="B850" s="30" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B851" s="35" t="s">
+      <c r="B851" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B852" s="35" t="s">
+      <c r="B852" s="30" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B853" s="35" t="s">
+      <c r="B853" s="30" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B854" s="35" t="s">
+      <c r="B854" s="30" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B855" s="35" t="s">
+      <c r="B855" s="30" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B856" s="35" t="s">
+      <c r="B856" s="30" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B857" s="35" t="s">
+      <c r="B857" s="30" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B858" s="35" t="s">
+      <c r="B858" s="30" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B859" s="35" t="s">
+      <c r="B859" s="30" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B860" s="35" t="s">
+      <c r="B860" s="30" t="s">
         <v>888</v>
       </c>
     </row>

--- a/Requirements/Documents/Excel Sheets/Final Master Sheet.xlsx
+++ b/Requirements/Documents/Excel Sheets/Final Master Sheet.xlsx
@@ -23,6 +23,7 @@
     <definedName name="Gender">'Drop Down values'!$H$2:$H$4</definedName>
     <definedName name="GuardianType">'Drop Down values'!$E$2:$E$5</definedName>
     <definedName name="ListOfStates">'Drop Down values'!$A$2:$A$33</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="PaymentMode">'Drop Down values'!$G$2</definedName>
     <definedName name="Salutation">'Drop Down values'!$D$2:$D$4</definedName>
   </definedNames>
@@ -2715,10 +2716,10 @@
     <t>PaymentMode</t>
   </si>
   <si>
-    <t>YYYY-MM-DD</t>
-  </si>
-  <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>DD-MM-YYYY</t>
   </si>
 </sst>
 </file>
@@ -3524,9 +3525,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3676,7 +3677,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>25</v>
@@ -3755,7 +3756,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="8"/>
